--- a/Tesztmenedzser.xlsx
+++ b/Tesztmenedzser.xlsx
@@ -1,32 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunai\Dropbox\CODECOOL\AUTOMATA TESZTELÉS\VIZSGAREMEK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunai\IdeaProjects\Vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27FA2360-B9FA-4436-8BC6-C9EF5CCFAC87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD3F996-00E3-4750-A458-66EE23722BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2784" yWindow="-108" windowWidth="20364" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3468" yWindow="-108" windowWidth="19680" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tesztesetek (test case)" sheetId="1" r:id="rId1"/>
     <sheet name="hibák (bug)" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'hibák (bug)'!$C$6:$C$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'tesztesetek (test case)'!$A$1:$AB$1</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="160">
   <si>
     <t>Azonosító (ID)</t>
-  </si>
-  <si>
-    <t>Név (Name)</t>
   </si>
   <si>
     <t>Leírás (Description)</t>
@@ -138,13 +139,459 @@
   <si>
     <t>Reprodukálás lépései 
 (Steps To Reproduce)</t>
+  </si>
+  <si>
+    <t>TC01</t>
+  </si>
+  <si>
+    <t>TC02</t>
+  </si>
+  <si>
+    <t>TC03</t>
+  </si>
+  <si>
+    <t>TC04</t>
+  </si>
+  <si>
+    <t>TC05</t>
+  </si>
+  <si>
+    <t>TC06</t>
+  </si>
+  <si>
+    <t>TC07</t>
+  </si>
+  <si>
+    <t>TC08</t>
+  </si>
+  <si>
+    <t>TC09</t>
+  </si>
+  <si>
+    <t>TC10</t>
+  </si>
+  <si>
+    <t>TC11</t>
+  </si>
+  <si>
+    <t>TC12</t>
+  </si>
+  <si>
+    <t>TC13</t>
+  </si>
+  <si>
+    <t>TC14</t>
+  </si>
+  <si>
+    <t>TC15</t>
+  </si>
+  <si>
+    <t>Szerémyné Dunai Anikó Anna</t>
+  </si>
+  <si>
+    <t>A new user accept Terms&amp;Conditions and register on the site.</t>
+  </si>
+  <si>
+    <t>Registration test</t>
+  </si>
+  <si>
+    <t>Assertions típus
+(Assertions Type)</t>
+  </si>
+  <si>
+    <t>A futtatott teszt Assertions típusa</t>
+  </si>
+  <si>
+    <t>Installed Chrome v.111 browser 
+on Windows 10 OS</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>assertEquals()</t>
+  </si>
+  <si>
+    <t>Teszt osztály
+(Test Class)</t>
+  </si>
+  <si>
+    <t>TestRegistration</t>
+  </si>
+  <si>
+    <t>TestLoginLogout</t>
+  </si>
+  <si>
+    <t>Login/logout</t>
+  </si>
+  <si>
+    <t>Login with master username &amp; password after acceptance of the Terms&amp;Conditions test</t>
+  </si>
+  <si>
+    <t>User accept Terms&amp;Conditions and log in with registered username and password.</t>
+  </si>
+  <si>
+    <t>User accept Terms&amp;Conditions, log in with registered username/password and log out from the site.</t>
+  </si>
+  <si>
+    <t>Accepting Terms&amp;Conditions, login and logout test</t>
+  </si>
+  <si>
+    <t>Teszt név (Test Name)</t>
+  </si>
+  <si>
+    <t>TestDataInputFromSource</t>
+  </si>
+  <si>
+    <t>Sequential Registration Using Data From JSON File Test</t>
+  </si>
+  <si>
+    <t>Sequential registration using data from JSON file.</t>
+  </si>
+  <si>
+    <t>*Registration:*
+assertEquals(),
+*Login:*
+assertEquals()</t>
+  </si>
+  <si>
+    <t>TestDataModification</t>
+  </si>
+  <si>
+    <t>Modify profile data test</t>
+  </si>
+  <si>
+    <t>Modify profile data</t>
+  </si>
+  <si>
+    <t>User modify profile data on Profile subpage.</t>
+  </si>
+  <si>
+    <t>assertTrue()</t>
+  </si>
+  <si>
+    <t>TestDeleteData</t>
+  </si>
+  <si>
+    <t>Delete account test</t>
+  </si>
+  <si>
+    <t>User delete account on Profile subpage.</t>
+  </si>
+  <si>
+    <t>Delete account</t>
+  </si>
+  <si>
+    <t>Save picture test</t>
+  </si>
+  <si>
+    <t>Save a picture from the Image test post.</t>
+  </si>
+  <si>
+    <t>Download data</t>
+  </si>
+  <si>
+    <t>TestDownloadData</t>
+  </si>
+  <si>
+    <t>Saved file exists in project folder</t>
+  </si>
+  <si>
+    <t>Get names from table test</t>
+  </si>
+  <si>
+    <t>TestListingData</t>
+  </si>
+  <si>
+    <t>We compare names from table with txt file.</t>
+  </si>
+  <si>
+    <t>Table data</t>
+  </si>
+  <si>
+    <t>assertArrayEquals()</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>"Profile Edited!" text appears</t>
+  </si>
+  <si>
+    <t>"Username or Password is not correct!" text appears</t>
+  </si>
+  <si>
+    <t>Get ages from table test</t>
+  </si>
+  <si>
+    <t>We compare ages from table with test data.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ages from table cell match with "27" and "23" test data </t>
+  </si>
+  <si>
+    <t>Names from "namesFromTable.txt" match with the corresponding rows of the table.</t>
+  </si>
+  <si>
+    <t>Get tags from BlondeSite test</t>
+  </si>
+  <si>
+    <t>We compare tags from BlondeSite with txt file.</t>
+  </si>
+  <si>
+    <t>Tags from "tagList.txt" match with elements of Tags Block on BlondeSite.</t>
+  </si>
+  <si>
+    <t>Sending message via Contact form test</t>
+  </si>
+  <si>
+    <t>Contact form</t>
+  </si>
+  <si>
+    <t>TestNewDataInput</t>
+  </si>
+  <si>
+    <t>User send a message via contact form.</t>
+  </si>
+  <si>
+    <t>assertFalse()</t>
+  </si>
+  <si>
+    <t>Hiba</t>
+  </si>
+  <si>
+    <t>"User registered!" text appears</t>
+  </si>
+  <si>
+    <t>"Logout" button appears</t>
+  </si>
+  <si>
+    <t>"Login" button appears</t>
+  </si>
+  <si>
+    <t>"Form not found." text doesn't appear after clicking on "Submit" button</t>
+  </si>
+  <si>
+    <t>"Form not found." text appears after clicking on "Submit" button</t>
+  </si>
+  <si>
+    <t>Checking post titles test</t>
+  </si>
+  <si>
+    <t>We check the post titles in a txt file.</t>
+  </si>
+  <si>
+    <t>Posts</t>
+  </si>
+  <si>
+    <t>TestPostsOnBlondeSite</t>
+  </si>
+  <si>
+    <t>Nem futtatható</t>
+  </si>
+  <si>
+    <t>Titles from "postTitles.txt" match with post titles on BlondeSite.</t>
+  </si>
+  <si>
+    <t>Counting post titles test</t>
+  </si>
+  <si>
+    <t>We count the posts on the Blonde site.</t>
+  </si>
+  <si>
+    <t>"6"</t>
+  </si>
+  <si>
+    <t>TestTermsAndConditions</t>
+  </si>
+  <si>
+    <t>Terms &amp; Conditions</t>
+  </si>
+  <si>
+    <t>Terms &amp; Conditions appearance test</t>
+  </si>
+  <si>
+    <t>Visitor open the website for the first time and Terms&amp;Conditions is displayed on the screen.</t>
+  </si>
+  <si>
+    <t>"Terms &amp; Conditions" is displayed for the first visit on the website</t>
+  </si>
+  <si>
+    <t>Registration after Rejected Terms &amp; Conditions test</t>
+  </si>
+  <si>
+    <t>Visitor open the website for the first time, reject the Terms&amp;Conditions, so visitor cannot register on the website.</t>
+  </si>
+  <si>
+    <t>"User cannot register without accepting the Terms And Conditions!" text appears</t>
+  </si>
+  <si>
+    <t>"User cannot register without accepting the Terms And Conditions!" text doesn't appear</t>
+  </si>
+  <si>
+    <t>BUG02</t>
+  </si>
+  <si>
+    <t>BUG01</t>
+  </si>
+  <si>
+    <t>"User cannot register without accepting the Terms And Conditions!" text appears.</t>
+  </si>
+  <si>
+    <t>"User cannot register without accepting the Terms And Conditions!" text doesn't appear, user registration can be successfully completed.</t>
+  </si>
+  <si>
+    <t>16.04.2023</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Chrome v.111 browser 
+on Windows 10 OS</t>
+  </si>
+  <si>
+    <t>12.04.2023</t>
+  </si>
+  <si>
+    <t>Registration after Rejected Terms &amp; Conditions can be successfully completed.
+(TC13)</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>1.0.1</t>
+  </si>
+  <si>
+    <t>Registration after 
+Rejected Terms &amp; Conditions 
+bug</t>
+  </si>
+  <si>
+    <t>Developer</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>Sending message 
+via Contact form 
+bug</t>
+  </si>
+  <si>
+    <t>User can't send a message via contact form.
+(TC11)</t>
+  </si>
+  <si>
+    <t>7x Sequential reg (
+*Registration:*
+"User registered!" text appears.
+*Login:*
+"Logout" button appears.)</t>
+  </si>
+  <si>
+    <t>URL=https://lennertamas.github.io/blondesite/
+File: registerData.json</t>
+  </si>
+  <si>
+    <t>URL= https://lennertamas.github.io/blondesite/profile.html
+*Registration:*
+USERNAME="Anna"
+PASSWORD="mammamia123"
+EMAIL="cool@code.com"
+DESCRIPTION="Tester"</t>
+  </si>
+  <si>
+    <t>URL= https://lennertamas.github.io/blondesite/profile.html
+*Registration:*
+USERNAME="Anna"
+PASSWORD="mammamia123"
+EMAIL="cool@code.com"
+DESCRIPTION="Tester"
+*Modify profile:*
+PROFILE_NAME="Anna Smith"
+PROFILE_BIO="bio"
+PROFILE_PHONE="0051 1234 5678"</t>
+  </si>
+  <si>
+    <t>URL= https://lennertamas.github.io/blondesite/
+*Login:*
+REGISTERED_USERNAME="lovasia"
+REGISTERED_PASSWORD="kispal123"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URL= https://lennertamas.github.io/blondesite/
+*Registration:*
+USERNAME="Anna"
+PASSWORD="mammamia123"
+EMAIL="cool@code.com"
+DESCRIPTION="Tester"
+</t>
+  </si>
+  <si>
+    <t>URL = https://lennertamas.github.io/blondesite/post/image-test/
+*Registration:*
+USERNAME="Anna"
+PASSWORD="mammamia123"
+EMAIL="cool@code.com"
+DESCRIPTION="Tester"</t>
+  </si>
+  <si>
+    <t>URL = https://lennertamas.github.io/blondesite/post/markdown-syntax/
+*Registration:*
+USERNAME="Anna"
+PASSWORD="mammamia123"
+EMAIL="cool@code.com"
+DESCRIPTION="Tester"
+File: namesFromTable.txt</t>
+  </si>
+  <si>
+    <t>URL = https://lennertamas.github.io/blondesite/post/markdown-syntax/
+*Registration:*
+USERNAME="Anna"
+PASSWORD="mammamia123"
+EMAIL="cool@code.com"
+DESCRIPTION="Tester"
+ages = "27", "23"</t>
+  </si>
+  <si>
+    <t>URL= https://lennertamas.github.io/blondesite/
+*Registration:*
+USERNAME="Anna"
+PASSWORD="mammamia123"
+EMAIL="cool@code.com"
+DESCRIPTION="Tester"</t>
+  </si>
+  <si>
+    <t>URL= https://lennertamas.github.io/blondesite/
+*Registration:*
+USERNAME="Anna"
+PASSWORD="mammamia123"
+EMAIL="cool@code.com"
+DESCRIPTION="Tester"
+File: tagList.txt</t>
+  </si>
+  <si>
+    <t>URL = https://lennertamas.github.io/blondesite/contact/
+*Registration:*
+USERNAME="Anna"
+PASSWORD="mammamia123"
+EMAIL="cool@code.com"
+DESCRIPTION="Tester"</t>
+  </si>
+  <si>
+    <t>URL= https://lennertamas.github.io/blondesite/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -177,8 +624,38 @@
       <color theme="1"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -194,6 +671,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
@@ -225,7 +708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -246,11 +729,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -277,9 +783,16 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor rgb="FFF45338"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -294,56 +807,8 @@
     <dxf>
       <fill>
         <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -397,6 +862,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF45338"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -606,69 +1076,77 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y1000"/>
+  <dimension ref="A1:AB1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="13.8984375" customWidth="1"/>
-    <col min="2" max="2" width="14.69921875" customWidth="1"/>
-    <col min="3" max="3" width="23.19921875" customWidth="1"/>
-    <col min="4" max="4" width="31.69921875" customWidth="1"/>
-    <col min="5" max="5" width="10.69921875" customWidth="1"/>
-    <col min="6" max="6" width="11.69921875" customWidth="1"/>
-    <col min="7" max="7" width="23.19921875" customWidth="1"/>
-    <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="16.19921875" customWidth="1"/>
-    <col min="12" max="12" width="24.59765625" customWidth="1"/>
+    <col min="1" max="2" width="13.8984375" customWidth="1"/>
+    <col min="3" max="3" width="19.8984375" customWidth="1"/>
+    <col min="4" max="4" width="14.69921875" customWidth="1"/>
+    <col min="5" max="5" width="23.19921875" customWidth="1"/>
+    <col min="6" max="6" width="24" customWidth="1"/>
+    <col min="7" max="7" width="10.69921875" customWidth="1"/>
+    <col min="8" max="8" width="11.69921875" customWidth="1"/>
+    <col min="9" max="9" width="23.19921875" customWidth="1"/>
+    <col min="10" max="10" width="34.5" customWidth="1"/>
+    <col min="11" max="11" width="16.69921875" customWidth="1"/>
+    <col min="12" max="12" width="16.8984375" style="9" customWidth="1"/>
+    <col min="13" max="13" width="17" style="9" customWidth="1"/>
+    <col min="14" max="14" width="16.19921875" customWidth="1"/>
+    <col min="15" max="15" width="24.59765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="46.8">
+    <row r="1" spans="1:28" ht="48" thickTop="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
       <c r="P1" s="2"/>
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
@@ -679,45 +1157,50 @@
       <c r="W1" s="2"/>
       <c r="X1" s="2"/>
       <c r="Y1" s="2"/>
-    </row>
-    <row r="2" spans="1:25" ht="60" customHeight="1">
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+    </row>
+    <row r="2" spans="1:28" ht="60" hidden="1" customHeight="1">
       <c r="A2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="G2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="J2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="K2" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="M2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="N2" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="3"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="2"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
@@ -728,23 +1211,52 @@
       <c r="W2" s="2"/>
       <c r="X2" s="2"/>
       <c r="Y2" s="2"/>
-    </row>
-    <row r="3" spans="1:25" ht="60" customHeight="1">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+    </row>
+    <row r="3" spans="1:28" ht="92.4" thickTop="1" thickBot="1">
+      <c r="A3" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="5"/>
       <c r="P3" s="2"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
@@ -755,23 +1267,52 @@
       <c r="W3" s="2"/>
       <c r="X3" s="2"/>
       <c r="Y3" s="2"/>
-    </row>
-    <row r="4" spans="1:25" ht="60" customHeight="1">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+    </row>
+    <row r="4" spans="1:28" ht="82.2" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A4" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="N4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O4" s="5"/>
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
@@ -782,23 +1323,52 @@
       <c r="W4" s="2"/>
       <c r="X4" s="2"/>
       <c r="Y4" s="2"/>
-    </row>
-    <row r="5" spans="1:25" ht="60" customHeight="1">
-      <c r="A5" s="5"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="5"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+    </row>
+    <row r="5" spans="1:28" ht="57">
+      <c r="A5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O5" s="5"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
@@ -809,23 +1379,52 @@
       <c r="W5" s="2"/>
       <c r="X5" s="2"/>
       <c r="Y5" s="2"/>
-    </row>
-    <row r="6" spans="1:25" ht="60" customHeight="1">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+    </row>
+    <row r="6" spans="1:28" ht="81" thickTop="1" thickBot="1">
+      <c r="A6" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="5"/>
       <c r="P6" s="2"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
@@ -836,23 +1435,52 @@
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
       <c r="Y6" s="2"/>
-    </row>
-    <row r="7" spans="1:25" ht="60" customHeight="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+    </row>
+    <row r="7" spans="1:28" ht="149.4" thickTop="1" thickBot="1">
+      <c r="A7" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="N7" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="5"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
@@ -863,23 +1491,52 @@
       <c r="W7" s="2"/>
       <c r="X7" s="2"/>
       <c r="Y7" s="2"/>
-    </row>
-    <row r="8" spans="1:25" ht="60" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+    </row>
+    <row r="8" spans="1:28" ht="92.4" thickTop="1" thickBot="1">
+      <c r="A8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O8" s="5"/>
       <c r="P8" s="2"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
@@ -890,23 +1547,52 @@
       <c r="W8" s="2"/>
       <c r="X8" s="2"/>
       <c r="Y8" s="2"/>
-    </row>
-    <row r="9" spans="1:25" ht="60" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+    </row>
+    <row r="9" spans="1:28" ht="103.8" thickTop="1" thickBot="1">
+      <c r="A9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="J9" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M9" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O9" s="5"/>
       <c r="P9" s="2"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
@@ -917,23 +1603,52 @@
       <c r="W9" s="2"/>
       <c r="X9" s="2"/>
       <c r="Y9" s="2"/>
-    </row>
-    <row r="10" spans="1:25" ht="60" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+    </row>
+    <row r="10" spans="1:28" ht="126.6" thickTop="1" thickBot="1">
+      <c r="A10" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I10" s="14"/>
+      <c r="J10" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O10" s="5"/>
       <c r="P10" s="2"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
@@ -944,23 +1659,52 @@
       <c r="W10" s="2"/>
       <c r="X10" s="2"/>
       <c r="Y10" s="2"/>
-    </row>
-    <row r="11" spans="1:25" ht="60" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+    </row>
+    <row r="11" spans="1:28" ht="125.4">
+      <c r="A11" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I11" s="14"/>
+      <c r="J11" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="5"/>
       <c r="P11" s="2"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
@@ -971,23 +1715,52 @@
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
       <c r="Y11" s="2"/>
-    </row>
-    <row r="12" spans="1:25" ht="60" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+    </row>
+    <row r="12" spans="1:28" ht="102.6">
+      <c r="A12" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I12" s="14"/>
+      <c r="J12" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O12" s="5"/>
       <c r="P12" s="2"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
@@ -998,23 +1771,52 @@
       <c r="W12" s="2"/>
       <c r="X12" s="2"/>
       <c r="Y12" s="2"/>
-    </row>
-    <row r="13" spans="1:25" ht="74.25" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="5"/>
-      <c r="J13" s="5"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+    </row>
+    <row r="13" spans="1:28" ht="91.2">
+      <c r="A13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="14"/>
+      <c r="J13" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="K13" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="L13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O13" s="5"/>
       <c r="P13" s="2"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
@@ -1025,23 +1827,52 @@
       <c r="W13" s="2"/>
       <c r="X13" s="2"/>
       <c r="Y13" s="2"/>
-    </row>
-    <row r="14" spans="1:25" ht="82.5" customHeight="1">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="5"/>
-      <c r="J14" s="5"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+    </row>
+    <row r="14" spans="1:28" ht="82.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A14" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I14" s="14"/>
+      <c r="J14" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="M14" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O14" s="5"/>
       <c r="P14" s="2"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
@@ -1052,23 +1883,52 @@
       <c r="W14" s="2"/>
       <c r="X14" s="2"/>
       <c r="Y14" s="2"/>
-    </row>
-    <row r="15" spans="1:25" ht="85.5" customHeight="1">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
-      <c r="O15" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+    </row>
+    <row r="15" spans="1:28" ht="85.5" customHeight="1" thickTop="1" thickBot="1">
+      <c r="A15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I15" s="14"/>
+      <c r="J15" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="M15" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="N15" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="O15" s="5"/>
       <c r="P15" s="2"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
@@ -1079,23 +1939,52 @@
       <c r="W15" s="2"/>
       <c r="X15" s="2"/>
       <c r="Y15" s="2"/>
-    </row>
-    <row r="16" spans="1:25" ht="171" customHeight="1">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-      <c r="O16" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+    </row>
+    <row r="16" spans="1:28" ht="81" thickTop="1" thickBot="1">
+      <c r="A16" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="14"/>
+      <c r="J16" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="M16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="5"/>
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
@@ -1106,50 +1995,80 @@
       <c r="W16" s="2"/>
       <c r="X16" s="2"/>
       <c r="Y16" s="2"/>
-    </row>
-    <row r="17" spans="1:25" ht="196.5" customHeight="1">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="6"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="S17" s="2"/>
-      <c r="T17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-    </row>
-    <row r="18" spans="1:25" ht="158.25" customHeight="1">
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+    </row>
+    <row r="17" spans="1:28" s="13" customFormat="1" ht="79.8">
+      <c r="A17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="I17" s="15"/>
+      <c r="J17" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="O17" s="10"/>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+      <c r="R17" s="12"/>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="12"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="12"/>
+      <c r="AA17" s="12"/>
+      <c r="AB17" s="12"/>
+    </row>
+    <row r="18" spans="1:28" ht="13.8">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="6"/>
       <c r="H18" s="6"/>
       <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
+      <c r="J18" s="6"/>
       <c r="K18" s="6"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-      <c r="O18" s="2"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="5"/>
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
@@ -1160,23 +2079,26 @@
       <c r="W18" s="2"/>
       <c r="X18" s="2"/>
       <c r="Y18" s="2"/>
-    </row>
-    <row r="19" spans="1:25" ht="141" customHeight="1">
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+    </row>
+    <row r="19" spans="1:28" ht="141" customHeight="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
+      <c r="J19" s="6"/>
       <c r="K19" s="6"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="5"/>
       <c r="P19" s="2"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
@@ -1187,23 +2109,26 @@
       <c r="W19" s="2"/>
       <c r="X19" s="2"/>
       <c r="Y19" s="2"/>
-    </row>
-    <row r="20" spans="1:25" ht="60" customHeight="1">
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+    </row>
+    <row r="20" spans="1:28" ht="60" customHeight="1">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="6"/>
       <c r="H20" s="6"/>
       <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
+      <c r="J20" s="6"/>
       <c r="K20" s="6"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="5"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
@@ -1214,23 +2139,26 @@
       <c r="W20" s="2"/>
       <c r="X20" s="2"/>
       <c r="Y20" s="2"/>
-    </row>
-    <row r="21" spans="1:25" ht="60" customHeight="1">
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+    </row>
+    <row r="21" spans="1:28" ht="60" customHeight="1">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="6"/>
       <c r="H21" s="6"/>
       <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
+      <c r="J21" s="6"/>
       <c r="K21" s="6"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="5"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
@@ -1241,23 +2169,26 @@
       <c r="W21" s="2"/>
       <c r="X21" s="2"/>
       <c r="Y21" s="2"/>
-    </row>
-    <row r="22" spans="1:25" ht="60" customHeight="1">
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+    </row>
+    <row r="22" spans="1:28" ht="60" customHeight="1">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="6"/>
       <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
+      <c r="J22" s="6"/>
       <c r="K22" s="6"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="5"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
@@ -1268,8 +2199,11 @@
       <c r="W22" s="2"/>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
-    </row>
-    <row r="23" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+    </row>
+    <row r="23" spans="1:28" ht="15.75" customHeight="1">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1281,8 +2215,8 @@
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
+      <c r="L23" s="8"/>
+      <c r="M23" s="8"/>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
@@ -1295,8 +2229,11 @@
       <c r="W23" s="2"/>
       <c r="X23" s="2"/>
       <c r="Y23" s="2"/>
-    </row>
-    <row r="24" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z23" s="2"/>
+      <c r="AA23" s="2"/>
+      <c r="AB23" s="2"/>
+    </row>
+    <row r="24" spans="1:28" ht="15.75" customHeight="1">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1308,8 +2245,8 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
+      <c r="L24" s="8"/>
+      <c r="M24" s="8"/>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
@@ -1322,8 +2259,11 @@
       <c r="W24" s="2"/>
       <c r="X24" s="2"/>
       <c r="Y24" s="2"/>
-    </row>
-    <row r="25" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z24" s="2"/>
+      <c r="AA24" s="2"/>
+      <c r="AB24" s="2"/>
+    </row>
+    <row r="25" spans="1:28" ht="15.75" customHeight="1">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1335,8 +2275,8 @@
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
+      <c r="L25" s="8"/>
+      <c r="M25" s="8"/>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
@@ -1349,8 +2289,11 @@
       <c r="W25" s="2"/>
       <c r="X25" s="2"/>
       <c r="Y25" s="2"/>
-    </row>
-    <row r="26" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z25" s="2"/>
+      <c r="AA25" s="2"/>
+      <c r="AB25" s="2"/>
+    </row>
+    <row r="26" spans="1:28" ht="15.75" customHeight="1">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1362,8 +2305,8 @@
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
+      <c r="L26" s="8"/>
+      <c r="M26" s="8"/>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
@@ -1376,8 +2319,11 @@
       <c r="W26" s="2"/>
       <c r="X26" s="2"/>
       <c r="Y26" s="2"/>
-    </row>
-    <row r="27" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z26" s="2"/>
+      <c r="AA26" s="2"/>
+      <c r="AB26" s="2"/>
+    </row>
+    <row r="27" spans="1:28" ht="15.75" customHeight="1">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1389,8 +2335,8 @@
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
       <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
+      <c r="L27" s="8"/>
+      <c r="M27" s="8"/>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
@@ -1403,8 +2349,11 @@
       <c r="W27" s="2"/>
       <c r="X27" s="2"/>
       <c r="Y27" s="2"/>
-    </row>
-    <row r="28" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+    </row>
+    <row r="28" spans="1:28" ht="15.75" customHeight="1">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1416,8 +2365,8 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
       <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
+      <c r="L28" s="8"/>
+      <c r="M28" s="8"/>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
       <c r="P28" s="2"/>
@@ -1430,8 +2379,11 @@
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-    </row>
-    <row r="29" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+    </row>
+    <row r="29" spans="1:28" ht="15.75" customHeight="1">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1443,8 +2395,8 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" s="2"/>
@@ -1457,8 +2409,11 @@
       <c r="W29" s="2"/>
       <c r="X29" s="2"/>
       <c r="Y29" s="2"/>
-    </row>
-    <row r="30" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+    </row>
+    <row r="30" spans="1:28" ht="15.75" customHeight="1">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1470,8 +2425,8 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="8"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
@@ -1484,8 +2439,11 @@
       <c r="W30" s="2"/>
       <c r="X30" s="2"/>
       <c r="Y30" s="2"/>
-    </row>
-    <row r="31" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+    </row>
+    <row r="31" spans="1:28" ht="15.75" customHeight="1">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1497,8 +2455,8 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="8"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
@@ -1511,8 +2469,11 @@
       <c r="W31" s="2"/>
       <c r="X31" s="2"/>
       <c r="Y31" s="2"/>
-    </row>
-    <row r="32" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+    </row>
+    <row r="32" spans="1:28" ht="15.75" customHeight="1">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1524,8 +2485,8 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="8"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
@@ -1538,8 +2499,11 @@
       <c r="W32" s="2"/>
       <c r="X32" s="2"/>
       <c r="Y32" s="2"/>
-    </row>
-    <row r="33" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+    </row>
+    <row r="33" spans="1:28" ht="15.75" customHeight="1">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1551,8 +2515,8 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="8"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
@@ -1565,8 +2529,11 @@
       <c r="W33" s="2"/>
       <c r="X33" s="2"/>
       <c r="Y33" s="2"/>
-    </row>
-    <row r="34" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+    </row>
+    <row r="34" spans="1:28" ht="15.75" customHeight="1">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1578,8 +2545,8 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="8"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
@@ -1592,8 +2559,11 @@
       <c r="W34" s="2"/>
       <c r="X34" s="2"/>
       <c r="Y34" s="2"/>
-    </row>
-    <row r="35" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+    </row>
+    <row r="35" spans="1:28" ht="15.75" customHeight="1">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1605,8 +2575,8 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="8"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
@@ -1619,8 +2589,11 @@
       <c r="W35" s="2"/>
       <c r="X35" s="2"/>
       <c r="Y35" s="2"/>
-    </row>
-    <row r="36" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+    </row>
+    <row r="36" spans="1:28" ht="15.75" customHeight="1">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1632,8 +2605,8 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
@@ -1646,8 +2619,11 @@
       <c r="W36" s="2"/>
       <c r="X36" s="2"/>
       <c r="Y36" s="2"/>
-    </row>
-    <row r="37" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+    </row>
+    <row r="37" spans="1:28" ht="15.75" customHeight="1">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1659,8 +2635,8 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="8"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
@@ -1673,8 +2649,11 @@
       <c r="W37" s="2"/>
       <c r="X37" s="2"/>
       <c r="Y37" s="2"/>
-    </row>
-    <row r="38" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+    </row>
+    <row r="38" spans="1:28" ht="15.75" customHeight="1">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1686,8 +2665,8 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="8"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
@@ -1700,8 +2679,11 @@
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
-    </row>
-    <row r="39" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+    </row>
+    <row r="39" spans="1:28" ht="15.75" customHeight="1">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1713,8 +2695,8 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="8"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
@@ -1727,8 +2709,11 @@
       <c r="W39" s="2"/>
       <c r="X39" s="2"/>
       <c r="Y39" s="2"/>
-    </row>
-    <row r="40" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+    </row>
+    <row r="40" spans="1:28" ht="15.75" customHeight="1">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1740,8 +2725,8 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="8"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
@@ -1754,8 +2739,11 @@
       <c r="W40" s="2"/>
       <c r="X40" s="2"/>
       <c r="Y40" s="2"/>
-    </row>
-    <row r="41" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+    </row>
+    <row r="41" spans="1:28" ht="15.75" customHeight="1">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1767,8 +2755,8 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
@@ -1781,8 +2769,11 @@
       <c r="W41" s="2"/>
       <c r="X41" s="2"/>
       <c r="Y41" s="2"/>
-    </row>
-    <row r="42" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+    </row>
+    <row r="42" spans="1:28" ht="15.75" customHeight="1">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1794,8 +2785,8 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
@@ -1808,8 +2799,11 @@
       <c r="W42" s="2"/>
       <c r="X42" s="2"/>
       <c r="Y42" s="2"/>
-    </row>
-    <row r="43" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+    </row>
+    <row r="43" spans="1:28" ht="15.75" customHeight="1">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1821,8 +2815,8 @@
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
@@ -1835,8 +2829,11 @@
       <c r="W43" s="2"/>
       <c r="X43" s="2"/>
       <c r="Y43" s="2"/>
-    </row>
-    <row r="44" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+    </row>
+    <row r="44" spans="1:28" ht="15.75" customHeight="1">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1848,8 +2845,8 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2"/>
-      <c r="M44" s="2"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
@@ -1862,8 +2859,11 @@
       <c r="W44" s="2"/>
       <c r="X44" s="2"/>
       <c r="Y44" s="2"/>
-    </row>
-    <row r="45" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+    </row>
+    <row r="45" spans="1:28" ht="15.75" customHeight="1">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1875,8 +2875,8 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="2"/>
-      <c r="M45" s="2"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
@@ -1889,8 +2889,11 @@
       <c r="W45" s="2"/>
       <c r="X45" s="2"/>
       <c r="Y45" s="2"/>
-    </row>
-    <row r="46" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+    </row>
+    <row r="46" spans="1:28" ht="15.75" customHeight="1">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1902,8 +2905,8 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="2"/>
-      <c r="M46" s="2"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" s="2"/>
@@ -1916,8 +2919,11 @@
       <c r="W46" s="2"/>
       <c r="X46" s="2"/>
       <c r="Y46" s="2"/>
-    </row>
-    <row r="47" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+    </row>
+    <row r="47" spans="1:28" ht="15.75" customHeight="1">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1929,8 +2935,8 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2"/>
-      <c r="M47" s="2"/>
+      <c r="L47" s="8"/>
+      <c r="M47" s="8"/>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
@@ -1943,8 +2949,11 @@
       <c r="W47" s="2"/>
       <c r="X47" s="2"/>
       <c r="Y47" s="2"/>
-    </row>
-    <row r="48" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+    </row>
+    <row r="48" spans="1:28" ht="15.75" customHeight="1">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1956,8 +2965,8 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
+      <c r="L48" s="8"/>
+      <c r="M48" s="8"/>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
       <c r="P48" s="2"/>
@@ -1970,8 +2979,11 @@
       <c r="W48" s="2"/>
       <c r="X48" s="2"/>
       <c r="Y48" s="2"/>
-    </row>
-    <row r="49" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+    </row>
+    <row r="49" spans="1:28" ht="15.75" customHeight="1">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1983,8 +2995,8 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="2"/>
-      <c r="M49" s="2"/>
+      <c r="L49" s="8"/>
+      <c r="M49" s="8"/>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" s="2"/>
@@ -1997,8 +3009,11 @@
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
-    </row>
-    <row r="50" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+    </row>
+    <row r="50" spans="1:28" ht="15.75" customHeight="1">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -2010,8 +3025,8 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2"/>
-      <c r="M50" s="2"/>
+      <c r="L50" s="8"/>
+      <c r="M50" s="8"/>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
       <c r="P50" s="2"/>
@@ -2024,8 +3039,11 @@
       <c r="W50" s="2"/>
       <c r="X50" s="2"/>
       <c r="Y50" s="2"/>
-    </row>
-    <row r="51" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z50" s="2"/>
+      <c r="AA50" s="2"/>
+      <c r="AB50" s="2"/>
+    </row>
+    <row r="51" spans="1:28" ht="15.75" customHeight="1">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -2037,8 +3055,8 @@
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
       <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
+      <c r="L51" s="8"/>
+      <c r="M51" s="8"/>
       <c r="N51" s="2"/>
       <c r="O51" s="2"/>
       <c r="P51" s="2"/>
@@ -2051,8 +3069,11 @@
       <c r="W51" s="2"/>
       <c r="X51" s="2"/>
       <c r="Y51" s="2"/>
-    </row>
-    <row r="52" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+    </row>
+    <row r="52" spans="1:28" ht="15.75" customHeight="1">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -2064,8 +3085,8 @@
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="2"/>
-      <c r="M52" s="2"/>
+      <c r="L52" s="8"/>
+      <c r="M52" s="8"/>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" s="2"/>
@@ -2078,8 +3099,11 @@
       <c r="W52" s="2"/>
       <c r="X52" s="2"/>
       <c r="Y52" s="2"/>
-    </row>
-    <row r="53" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z52" s="2"/>
+      <c r="AA52" s="2"/>
+      <c r="AB52" s="2"/>
+    </row>
+    <row r="53" spans="1:28" ht="15.75" customHeight="1">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -2091,8 +3115,8 @@
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="2"/>
-      <c r="M53" s="2"/>
+      <c r="L53" s="8"/>
+      <c r="M53" s="8"/>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" s="2"/>
@@ -2105,8 +3129,11 @@
       <c r="W53" s="2"/>
       <c r="X53" s="2"/>
       <c r="Y53" s="2"/>
-    </row>
-    <row r="54" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z53" s="2"/>
+      <c r="AA53" s="2"/>
+      <c r="AB53" s="2"/>
+    </row>
+    <row r="54" spans="1:28" ht="15.75" customHeight="1">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -2118,8 +3145,8 @@
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" s="2"/>
@@ -2132,8 +3159,11 @@
       <c r="W54" s="2"/>
       <c r="X54" s="2"/>
       <c r="Y54" s="2"/>
-    </row>
-    <row r="55" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z54" s="2"/>
+      <c r="AA54" s="2"/>
+      <c r="AB54" s="2"/>
+    </row>
+    <row r="55" spans="1:28" ht="15.75" customHeight="1">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -2145,8 +3175,8 @@
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="2"/>
-      <c r="M55" s="2"/>
+      <c r="L55" s="8"/>
+      <c r="M55" s="8"/>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" s="2"/>
@@ -2159,8 +3189,11 @@
       <c r="W55" s="2"/>
       <c r="X55" s="2"/>
       <c r="Y55" s="2"/>
-    </row>
-    <row r="56" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z55" s="2"/>
+      <c r="AA55" s="2"/>
+      <c r="AB55" s="2"/>
+    </row>
+    <row r="56" spans="1:28" ht="15.75" customHeight="1">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -2172,8 +3205,8 @@
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="2"/>
-      <c r="M56" s="2"/>
+      <c r="L56" s="8"/>
+      <c r="M56" s="8"/>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" s="2"/>
@@ -2186,8 +3219,11 @@
       <c r="W56" s="2"/>
       <c r="X56" s="2"/>
       <c r="Y56" s="2"/>
-    </row>
-    <row r="57" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z56" s="2"/>
+      <c r="AA56" s="2"/>
+      <c r="AB56" s="2"/>
+    </row>
+    <row r="57" spans="1:28" ht="15.75" customHeight="1">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -2199,8 +3235,8 @@
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="2"/>
-      <c r="M57" s="2"/>
+      <c r="L57" s="8"/>
+      <c r="M57" s="8"/>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
       <c r="P57" s="2"/>
@@ -2213,8 +3249,11 @@
       <c r="W57" s="2"/>
       <c r="X57" s="2"/>
       <c r="Y57" s="2"/>
-    </row>
-    <row r="58" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z57" s="2"/>
+      <c r="AA57" s="2"/>
+      <c r="AB57" s="2"/>
+    </row>
+    <row r="58" spans="1:28" ht="15.75" customHeight="1">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -2226,8 +3265,8 @@
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="2"/>
-      <c r="M58" s="2"/>
+      <c r="L58" s="8"/>
+      <c r="M58" s="8"/>
       <c r="N58" s="2"/>
       <c r="O58" s="2"/>
       <c r="P58" s="2"/>
@@ -2240,8 +3279,11 @@
       <c r="W58" s="2"/>
       <c r="X58" s="2"/>
       <c r="Y58" s="2"/>
-    </row>
-    <row r="59" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z58" s="2"/>
+      <c r="AA58" s="2"/>
+      <c r="AB58" s="2"/>
+    </row>
+    <row r="59" spans="1:28" ht="15.75" customHeight="1">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -2253,8 +3295,8 @@
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="2"/>
-      <c r="M59" s="2"/>
+      <c r="L59" s="8"/>
+      <c r="M59" s="8"/>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
       <c r="P59" s="2"/>
@@ -2267,8 +3309,11 @@
       <c r="W59" s="2"/>
       <c r="X59" s="2"/>
       <c r="Y59" s="2"/>
-    </row>
-    <row r="60" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z59" s="2"/>
+      <c r="AA59" s="2"/>
+      <c r="AB59" s="2"/>
+    </row>
+    <row r="60" spans="1:28" ht="15.75" customHeight="1">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -2280,8 +3325,8 @@
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="2"/>
-      <c r="M60" s="2"/>
+      <c r="L60" s="8"/>
+      <c r="M60" s="8"/>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
       <c r="P60" s="2"/>
@@ -2294,8 +3339,11 @@
       <c r="W60" s="2"/>
       <c r="X60" s="2"/>
       <c r="Y60" s="2"/>
-    </row>
-    <row r="61" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z60" s="2"/>
+      <c r="AA60" s="2"/>
+      <c r="AB60" s="2"/>
+    </row>
+    <row r="61" spans="1:28" ht="15.75" customHeight="1">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -2307,8 +3355,8 @@
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="2"/>
-      <c r="M61" s="2"/>
+      <c r="L61" s="8"/>
+      <c r="M61" s="8"/>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" s="2"/>
@@ -2321,8 +3369,11 @@
       <c r="W61" s="2"/>
       <c r="X61" s="2"/>
       <c r="Y61" s="2"/>
-    </row>
-    <row r="62" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z61" s="2"/>
+      <c r="AA61" s="2"/>
+      <c r="AB61" s="2"/>
+    </row>
+    <row r="62" spans="1:28" ht="15.75" customHeight="1">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -2334,8 +3385,8 @@
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="2"/>
-      <c r="M62" s="2"/>
+      <c r="L62" s="8"/>
+      <c r="M62" s="8"/>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
       <c r="P62" s="2"/>
@@ -2348,8 +3399,11 @@
       <c r="W62" s="2"/>
       <c r="X62" s="2"/>
       <c r="Y62" s="2"/>
-    </row>
-    <row r="63" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z62" s="2"/>
+      <c r="AA62" s="2"/>
+      <c r="AB62" s="2"/>
+    </row>
+    <row r="63" spans="1:28" ht="15.75" customHeight="1">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -2361,8 +3415,8 @@
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="2"/>
-      <c r="M63" s="2"/>
+      <c r="L63" s="8"/>
+      <c r="M63" s="8"/>
       <c r="N63" s="2"/>
       <c r="O63" s="2"/>
       <c r="P63" s="2"/>
@@ -2375,8 +3429,11 @@
       <c r="W63" s="2"/>
       <c r="X63" s="2"/>
       <c r="Y63" s="2"/>
-    </row>
-    <row r="64" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z63" s="2"/>
+      <c r="AA63" s="2"/>
+      <c r="AB63" s="2"/>
+    </row>
+    <row r="64" spans="1:28" ht="15.75" customHeight="1">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -2388,8 +3445,8 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="2"/>
-      <c r="M64" s="2"/>
+      <c r="L64" s="8"/>
+      <c r="M64" s="8"/>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
       <c r="P64" s="2"/>
@@ -2402,8 +3459,11 @@
       <c r="W64" s="2"/>
       <c r="X64" s="2"/>
       <c r="Y64" s="2"/>
-    </row>
-    <row r="65" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z64" s="2"/>
+      <c r="AA64" s="2"/>
+      <c r="AB64" s="2"/>
+    </row>
+    <row r="65" spans="1:28" ht="15.75" customHeight="1">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -2415,8 +3475,8 @@
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="2"/>
-      <c r="M65" s="2"/>
+      <c r="L65" s="8"/>
+      <c r="M65" s="8"/>
       <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" s="2"/>
@@ -2429,8 +3489,11 @@
       <c r="W65" s="2"/>
       <c r="X65" s="2"/>
       <c r="Y65" s="2"/>
-    </row>
-    <row r="66" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z65" s="2"/>
+      <c r="AA65" s="2"/>
+      <c r="AB65" s="2"/>
+    </row>
+    <row r="66" spans="1:28" ht="15.75" customHeight="1">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -2442,8 +3505,8 @@
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="2"/>
-      <c r="M66" s="2"/>
+      <c r="L66" s="8"/>
+      <c r="M66" s="8"/>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
       <c r="P66" s="2"/>
@@ -2456,8 +3519,11 @@
       <c r="W66" s="2"/>
       <c r="X66" s="2"/>
       <c r="Y66" s="2"/>
-    </row>
-    <row r="67" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z66" s="2"/>
+      <c r="AA66" s="2"/>
+      <c r="AB66" s="2"/>
+    </row>
+    <row r="67" spans="1:28" ht="15.75" customHeight="1">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -2469,8 +3535,8 @@
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="2"/>
-      <c r="M67" s="2"/>
+      <c r="L67" s="8"/>
+      <c r="M67" s="8"/>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" s="2"/>
@@ -2483,8 +3549,11 @@
       <c r="W67" s="2"/>
       <c r="X67" s="2"/>
       <c r="Y67" s="2"/>
-    </row>
-    <row r="68" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z67" s="2"/>
+      <c r="AA67" s="2"/>
+      <c r="AB67" s="2"/>
+    </row>
+    <row r="68" spans="1:28" ht="15.75" customHeight="1">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -2496,8 +3565,8 @@
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
-      <c r="L68" s="2"/>
-      <c r="M68" s="2"/>
+      <c r="L68" s="8"/>
+      <c r="M68" s="8"/>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -2510,8 +3579,11 @@
       <c r="W68" s="2"/>
       <c r="X68" s="2"/>
       <c r="Y68" s="2"/>
-    </row>
-    <row r="69" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z68" s="2"/>
+      <c r="AA68" s="2"/>
+      <c r="AB68" s="2"/>
+    </row>
+    <row r="69" spans="1:28" ht="15.75" customHeight="1">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -2523,8 +3595,8 @@
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
-      <c r="M69" s="2"/>
+      <c r="L69" s="8"/>
+      <c r="M69" s="8"/>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
       <c r="P69" s="2"/>
@@ -2537,8 +3609,11 @@
       <c r="W69" s="2"/>
       <c r="X69" s="2"/>
       <c r="Y69" s="2"/>
-    </row>
-    <row r="70" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z69" s="2"/>
+      <c r="AA69" s="2"/>
+      <c r="AB69" s="2"/>
+    </row>
+    <row r="70" spans="1:28" ht="15.75" customHeight="1">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -2550,8 +3625,8 @@
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="8"/>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
       <c r="P70" s="2"/>
@@ -2564,8 +3639,11 @@
       <c r="W70" s="2"/>
       <c r="X70" s="2"/>
       <c r="Y70" s="2"/>
-    </row>
-    <row r="71" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z70" s="2"/>
+      <c r="AA70" s="2"/>
+      <c r="AB70" s="2"/>
+    </row>
+    <row r="71" spans="1:28" ht="15.75" customHeight="1">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -2577,8 +3655,8 @@
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
+      <c r="L71" s="8"/>
+      <c r="M71" s="8"/>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" s="2"/>
@@ -2591,8 +3669,11 @@
       <c r="W71" s="2"/>
       <c r="X71" s="2"/>
       <c r="Y71" s="2"/>
-    </row>
-    <row r="72" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z71" s="2"/>
+      <c r="AA71" s="2"/>
+      <c r="AB71" s="2"/>
+    </row>
+    <row r="72" spans="1:28" ht="15.75" customHeight="1">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -2604,8 +3685,8 @@
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" s="2"/>
@@ -2618,8 +3699,11 @@
       <c r="W72" s="2"/>
       <c r="X72" s="2"/>
       <c r="Y72" s="2"/>
-    </row>
-    <row r="73" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z72" s="2"/>
+      <c r="AA72" s="2"/>
+      <c r="AB72" s="2"/>
+    </row>
+    <row r="73" spans="1:28" ht="15.75" customHeight="1">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -2631,8 +3715,8 @@
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
       <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
+      <c r="L73" s="8"/>
+      <c r="M73" s="8"/>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
       <c r="P73" s="2"/>
@@ -2645,8 +3729,11 @@
       <c r="W73" s="2"/>
       <c r="X73" s="2"/>
       <c r="Y73" s="2"/>
-    </row>
-    <row r="74" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z73" s="2"/>
+      <c r="AA73" s="2"/>
+      <c r="AB73" s="2"/>
+    </row>
+    <row r="74" spans="1:28" ht="15.75" customHeight="1">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -2658,8 +3745,8 @@
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
       <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
+      <c r="L74" s="8"/>
+      <c r="M74" s="8"/>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" s="2"/>
@@ -2672,8 +3759,11 @@
       <c r="W74" s="2"/>
       <c r="X74" s="2"/>
       <c r="Y74" s="2"/>
-    </row>
-    <row r="75" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z74" s="2"/>
+      <c r="AA74" s="2"/>
+      <c r="AB74" s="2"/>
+    </row>
+    <row r="75" spans="1:28" ht="15.75" customHeight="1">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -2685,8 +3775,8 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
       <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
+      <c r="L75" s="8"/>
+      <c r="M75" s="8"/>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" s="2"/>
@@ -2699,8 +3789,11 @@
       <c r="W75" s="2"/>
       <c r="X75" s="2"/>
       <c r="Y75" s="2"/>
-    </row>
-    <row r="76" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z75" s="2"/>
+      <c r="AA75" s="2"/>
+      <c r="AB75" s="2"/>
+    </row>
+    <row r="76" spans="1:28" ht="15.75" customHeight="1">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -2712,8 +3805,8 @@
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
       <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
+      <c r="L76" s="8"/>
+      <c r="M76" s="8"/>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
       <c r="P76" s="2"/>
@@ -2726,8 +3819,11 @@
       <c r="W76" s="2"/>
       <c r="X76" s="2"/>
       <c r="Y76" s="2"/>
-    </row>
-    <row r="77" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z76" s="2"/>
+      <c r="AA76" s="2"/>
+      <c r="AB76" s="2"/>
+    </row>
+    <row r="77" spans="1:28" ht="15.75" customHeight="1">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -2739,8 +3835,8 @@
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
       <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
+      <c r="L77" s="8"/>
+      <c r="M77" s="8"/>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" s="2"/>
@@ -2753,8 +3849,11 @@
       <c r="W77" s="2"/>
       <c r="X77" s="2"/>
       <c r="Y77" s="2"/>
-    </row>
-    <row r="78" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z77" s="2"/>
+      <c r="AA77" s="2"/>
+      <c r="AB77" s="2"/>
+    </row>
+    <row r="78" spans="1:28" ht="15.75" customHeight="1">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
@@ -2766,8 +3865,8 @@
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
       <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
+      <c r="L78" s="8"/>
+      <c r="M78" s="8"/>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" s="2"/>
@@ -2780,8 +3879,11 @@
       <c r="W78" s="2"/>
       <c r="X78" s="2"/>
       <c r="Y78" s="2"/>
-    </row>
-    <row r="79" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z78" s="2"/>
+      <c r="AA78" s="2"/>
+      <c r="AB78" s="2"/>
+    </row>
+    <row r="79" spans="1:28" ht="15.75" customHeight="1">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
@@ -2793,8 +3895,8 @@
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
+      <c r="L79" s="8"/>
+      <c r="M79" s="8"/>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
       <c r="P79" s="2"/>
@@ -2807,8 +3909,11 @@
       <c r="W79" s="2"/>
       <c r="X79" s="2"/>
       <c r="Y79" s="2"/>
-    </row>
-    <row r="80" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z79" s="2"/>
+      <c r="AA79" s="2"/>
+      <c r="AB79" s="2"/>
+    </row>
+    <row r="80" spans="1:28" ht="15.75" customHeight="1">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
@@ -2820,8 +3925,8 @@
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
       <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
+      <c r="L80" s="8"/>
+      <c r="M80" s="8"/>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" s="2"/>
@@ -2834,8 +3939,11 @@
       <c r="W80" s="2"/>
       <c r="X80" s="2"/>
       <c r="Y80" s="2"/>
-    </row>
-    <row r="81" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z80" s="2"/>
+      <c r="AA80" s="2"/>
+      <c r="AB80" s="2"/>
+    </row>
+    <row r="81" spans="1:28" ht="15.75" customHeight="1">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
@@ -2847,8 +3955,8 @@
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
       <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
+      <c r="L81" s="8"/>
+      <c r="M81" s="8"/>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -2861,8 +3969,11 @@
       <c r="W81" s="2"/>
       <c r="X81" s="2"/>
       <c r="Y81" s="2"/>
-    </row>
-    <row r="82" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z81" s="2"/>
+      <c r="AA81" s="2"/>
+      <c r="AB81" s="2"/>
+    </row>
+    <row r="82" spans="1:28" ht="15.75" customHeight="1">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
@@ -2874,8 +3985,8 @@
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
+      <c r="L82" s="8"/>
+      <c r="M82" s="8"/>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -2888,8 +3999,11 @@
       <c r="W82" s="2"/>
       <c r="X82" s="2"/>
       <c r="Y82" s="2"/>
-    </row>
-    <row r="83" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z82" s="2"/>
+      <c r="AA82" s="2"/>
+      <c r="AB82" s="2"/>
+    </row>
+    <row r="83" spans="1:28" ht="15.75" customHeight="1">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
@@ -2901,8 +4015,8 @@
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
+      <c r="L83" s="8"/>
+      <c r="M83" s="8"/>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -2915,8 +4029,11 @@
       <c r="W83" s="2"/>
       <c r="X83" s="2"/>
       <c r="Y83" s="2"/>
-    </row>
-    <row r="84" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z83" s="2"/>
+      <c r="AA83" s="2"/>
+      <c r="AB83" s="2"/>
+    </row>
+    <row r="84" spans="1:28" ht="15.75" customHeight="1">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
@@ -2928,8 +4045,8 @@
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
+      <c r="L84" s="8"/>
+      <c r="M84" s="8"/>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
       <c r="P84" s="2"/>
@@ -2942,8 +4059,11 @@
       <c r="W84" s="2"/>
       <c r="X84" s="2"/>
       <c r="Y84" s="2"/>
-    </row>
-    <row r="85" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z84" s="2"/>
+      <c r="AA84" s="2"/>
+      <c r="AB84" s="2"/>
+    </row>
+    <row r="85" spans="1:28" ht="15.75" customHeight="1">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
@@ -2955,8 +4075,8 @@
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
+      <c r="L85" s="8"/>
+      <c r="M85" s="8"/>
       <c r="N85" s="2"/>
       <c r="O85" s="2"/>
       <c r="P85" s="2"/>
@@ -2969,8 +4089,11 @@
       <c r="W85" s="2"/>
       <c r="X85" s="2"/>
       <c r="Y85" s="2"/>
-    </row>
-    <row r="86" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z85" s="2"/>
+      <c r="AA85" s="2"/>
+      <c r="AB85" s="2"/>
+    </row>
+    <row r="86" spans="1:28" ht="15.75" customHeight="1">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
@@ -2982,8 +4105,8 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
+      <c r="L86" s="8"/>
+      <c r="M86" s="8"/>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
       <c r="P86" s="2"/>
@@ -2996,8 +4119,11 @@
       <c r="W86" s="2"/>
       <c r="X86" s="2"/>
       <c r="Y86" s="2"/>
-    </row>
-    <row r="87" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z86" s="2"/>
+      <c r="AA86" s="2"/>
+      <c r="AB86" s="2"/>
+    </row>
+    <row r="87" spans="1:28" ht="15.75" customHeight="1">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
@@ -3009,8 +4135,8 @@
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
+      <c r="L87" s="8"/>
+      <c r="M87" s="8"/>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -3023,8 +4149,11 @@
       <c r="W87" s="2"/>
       <c r="X87" s="2"/>
       <c r="Y87" s="2"/>
-    </row>
-    <row r="88" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z87" s="2"/>
+      <c r="AA87" s="2"/>
+      <c r="AB87" s="2"/>
+    </row>
+    <row r="88" spans="1:28" ht="15.75" customHeight="1">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3036,8 +4165,8 @@
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
+      <c r="L88" s="8"/>
+      <c r="M88" s="8"/>
       <c r="N88" s="2"/>
       <c r="O88" s="2"/>
       <c r="P88" s="2"/>
@@ -3050,8 +4179,11 @@
       <c r="W88" s="2"/>
       <c r="X88" s="2"/>
       <c r="Y88" s="2"/>
-    </row>
-    <row r="89" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z88" s="2"/>
+      <c r="AA88" s="2"/>
+      <c r="AB88" s="2"/>
+    </row>
+    <row r="89" spans="1:28" ht="15.75" customHeight="1">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
@@ -3063,8 +4195,8 @@
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
+      <c r="L89" s="8"/>
+      <c r="M89" s="8"/>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -3077,8 +4209,11 @@
       <c r="W89" s="2"/>
       <c r="X89" s="2"/>
       <c r="Y89" s="2"/>
-    </row>
-    <row r="90" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z89" s="2"/>
+      <c r="AA89" s="2"/>
+      <c r="AB89" s="2"/>
+    </row>
+    <row r="90" spans="1:28" ht="15.75" customHeight="1">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
@@ -3090,8 +4225,8 @@
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -3104,8 +4239,11 @@
       <c r="W90" s="2"/>
       <c r="X90" s="2"/>
       <c r="Y90" s="2"/>
-    </row>
-    <row r="91" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z90" s="2"/>
+      <c r="AA90" s="2"/>
+      <c r="AB90" s="2"/>
+    </row>
+    <row r="91" spans="1:28" ht="15.75" customHeight="1">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
@@ -3117,8 +4255,8 @@
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
       <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
+      <c r="L91" s="8"/>
+      <c r="M91" s="8"/>
       <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" s="2"/>
@@ -3131,8 +4269,11 @@
       <c r="W91" s="2"/>
       <c r="X91" s="2"/>
       <c r="Y91" s="2"/>
-    </row>
-    <row r="92" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z91" s="2"/>
+      <c r="AA91" s="2"/>
+      <c r="AB91" s="2"/>
+    </row>
+    <row r="92" spans="1:28" ht="15.75" customHeight="1">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
@@ -3144,8 +4285,8 @@
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
       <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
+      <c r="L92" s="8"/>
+      <c r="M92" s="8"/>
       <c r="N92" s="2"/>
       <c r="O92" s="2"/>
       <c r="P92" s="2"/>
@@ -3158,8 +4299,11 @@
       <c r="W92" s="2"/>
       <c r="X92" s="2"/>
       <c r="Y92" s="2"/>
-    </row>
-    <row r="93" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z92" s="2"/>
+      <c r="AA92" s="2"/>
+      <c r="AB92" s="2"/>
+    </row>
+    <row r="93" spans="1:28" ht="15.75" customHeight="1">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
@@ -3171,8 +4315,8 @@
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
       <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
+      <c r="L93" s="8"/>
+      <c r="M93" s="8"/>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
       <c r="P93" s="2"/>
@@ -3185,8 +4329,11 @@
       <c r="W93" s="2"/>
       <c r="X93" s="2"/>
       <c r="Y93" s="2"/>
-    </row>
-    <row r="94" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z93" s="2"/>
+      <c r="AA93" s="2"/>
+      <c r="AB93" s="2"/>
+    </row>
+    <row r="94" spans="1:28" ht="15.75" customHeight="1">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
@@ -3198,8 +4345,8 @@
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
       <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
+      <c r="L94" s="8"/>
+      <c r="M94" s="8"/>
       <c r="N94" s="2"/>
       <c r="O94" s="2"/>
       <c r="P94" s="2"/>
@@ -3212,8 +4359,11 @@
       <c r="W94" s="2"/>
       <c r="X94" s="2"/>
       <c r="Y94" s="2"/>
-    </row>
-    <row r="95" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z94" s="2"/>
+      <c r="AA94" s="2"/>
+      <c r="AB94" s="2"/>
+    </row>
+    <row r="95" spans="1:28" ht="15.75" customHeight="1">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
@@ -3225,8 +4375,8 @@
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
+      <c r="L95" s="8"/>
+      <c r="M95" s="8"/>
       <c r="N95" s="2"/>
       <c r="O95" s="2"/>
       <c r="P95" s="2"/>
@@ -3239,8 +4389,11 @@
       <c r="W95" s="2"/>
       <c r="X95" s="2"/>
       <c r="Y95" s="2"/>
-    </row>
-    <row r="96" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z95" s="2"/>
+      <c r="AA95" s="2"/>
+      <c r="AB95" s="2"/>
+    </row>
+    <row r="96" spans="1:28" ht="15.75" customHeight="1">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
@@ -3252,8 +4405,8 @@
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
       <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
+      <c r="L96" s="8"/>
+      <c r="M96" s="8"/>
       <c r="N96" s="2"/>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -3266,8 +4419,11 @@
       <c r="W96" s="2"/>
       <c r="X96" s="2"/>
       <c r="Y96" s="2"/>
-    </row>
-    <row r="97" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z96" s="2"/>
+      <c r="AA96" s="2"/>
+      <c r="AB96" s="2"/>
+    </row>
+    <row r="97" spans="1:28" ht="15.75" customHeight="1">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
@@ -3279,8 +4435,8 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
       <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
+      <c r="L97" s="8"/>
+      <c r="M97" s="8"/>
       <c r="N97" s="2"/>
       <c r="O97" s="2"/>
       <c r="P97" s="2"/>
@@ -3293,8 +4449,11 @@
       <c r="W97" s="2"/>
       <c r="X97" s="2"/>
       <c r="Y97" s="2"/>
-    </row>
-    <row r="98" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z97" s="2"/>
+      <c r="AA97" s="2"/>
+      <c r="AB97" s="2"/>
+    </row>
+    <row r="98" spans="1:28" ht="15.75" customHeight="1">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
@@ -3306,8 +4465,8 @@
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
       <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
+      <c r="L98" s="8"/>
+      <c r="M98" s="8"/>
       <c r="N98" s="2"/>
       <c r="O98" s="2"/>
       <c r="P98" s="2"/>
@@ -3320,8 +4479,11 @@
       <c r="W98" s="2"/>
       <c r="X98" s="2"/>
       <c r="Y98" s="2"/>
-    </row>
-    <row r="99" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z98" s="2"/>
+      <c r="AA98" s="2"/>
+      <c r="AB98" s="2"/>
+    </row>
+    <row r="99" spans="1:28" ht="15.75" customHeight="1">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
@@ -3333,8 +4495,8 @@
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
       <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
+      <c r="L99" s="8"/>
+      <c r="M99" s="8"/>
       <c r="N99" s="2"/>
       <c r="O99" s="2"/>
       <c r="P99" s="2"/>
@@ -3347,8 +4509,11 @@
       <c r="W99" s="2"/>
       <c r="X99" s="2"/>
       <c r="Y99" s="2"/>
-    </row>
-    <row r="100" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z99" s="2"/>
+      <c r="AA99" s="2"/>
+      <c r="AB99" s="2"/>
+    </row>
+    <row r="100" spans="1:28" ht="15.75" customHeight="1">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
@@ -3360,8 +4525,8 @@
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
       <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
+      <c r="L100" s="8"/>
+      <c r="M100" s="8"/>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -3374,8 +4539,11 @@
       <c r="W100" s="2"/>
       <c r="X100" s="2"/>
       <c r="Y100" s="2"/>
-    </row>
-    <row r="101" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z100" s="2"/>
+      <c r="AA100" s="2"/>
+      <c r="AB100" s="2"/>
+    </row>
+    <row r="101" spans="1:28" ht="15.75" customHeight="1">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
@@ -3387,8 +4555,8 @@
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
+      <c r="L101" s="8"/>
+      <c r="M101" s="8"/>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
       <c r="P101" s="2"/>
@@ -3401,8 +4569,11 @@
       <c r="W101" s="2"/>
       <c r="X101" s="2"/>
       <c r="Y101" s="2"/>
-    </row>
-    <row r="102" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z101" s="2"/>
+      <c r="AA101" s="2"/>
+      <c r="AB101" s="2"/>
+    </row>
+    <row r="102" spans="1:28" ht="15.75" customHeight="1">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
@@ -3414,8 +4585,8 @@
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
       <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
+      <c r="L102" s="8"/>
+      <c r="M102" s="8"/>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -3428,8 +4599,11 @@
       <c r="W102" s="2"/>
       <c r="X102" s="2"/>
       <c r="Y102" s="2"/>
-    </row>
-    <row r="103" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z102" s="2"/>
+      <c r="AA102" s="2"/>
+      <c r="AB102" s="2"/>
+    </row>
+    <row r="103" spans="1:28" ht="15.75" customHeight="1">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
@@ -3441,8 +4615,8 @@
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
       <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -3455,8 +4629,11 @@
       <c r="W103" s="2"/>
       <c r="X103" s="2"/>
       <c r="Y103" s="2"/>
-    </row>
-    <row r="104" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z103" s="2"/>
+      <c r="AA103" s="2"/>
+      <c r="AB103" s="2"/>
+    </row>
+    <row r="104" spans="1:28" ht="15.75" customHeight="1">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
@@ -3468,8 +4645,8 @@
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
       <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
+      <c r="L104" s="8"/>
+      <c r="M104" s="8"/>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -3482,8 +4659,11 @@
       <c r="W104" s="2"/>
       <c r="X104" s="2"/>
       <c r="Y104" s="2"/>
-    </row>
-    <row r="105" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z104" s="2"/>
+      <c r="AA104" s="2"/>
+      <c r="AB104" s="2"/>
+    </row>
+    <row r="105" spans="1:28" ht="15.75" customHeight="1">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
@@ -3495,8 +4675,8 @@
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
       <c r="K105" s="2"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2"/>
+      <c r="L105" s="8"/>
+      <c r="M105" s="8"/>
       <c r="N105" s="2"/>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -3509,8 +4689,11 @@
       <c r="W105" s="2"/>
       <c r="X105" s="2"/>
       <c r="Y105" s="2"/>
-    </row>
-    <row r="106" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z105" s="2"/>
+      <c r="AA105" s="2"/>
+      <c r="AB105" s="2"/>
+    </row>
+    <row r="106" spans="1:28" ht="15.75" customHeight="1">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
@@ -3522,8 +4705,8 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2"/>
+      <c r="L106" s="8"/>
+      <c r="M106" s="8"/>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -3536,8 +4719,11 @@
       <c r="W106" s="2"/>
       <c r="X106" s="2"/>
       <c r="Y106" s="2"/>
-    </row>
-    <row r="107" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z106" s="2"/>
+      <c r="AA106" s="2"/>
+      <c r="AB106" s="2"/>
+    </row>
+    <row r="107" spans="1:28" ht="15.75" customHeight="1">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
@@ -3549,8 +4735,8 @@
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2"/>
+      <c r="L107" s="8"/>
+      <c r="M107" s="8"/>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
       <c r="P107" s="2"/>
@@ -3563,8 +4749,11 @@
       <c r="W107" s="2"/>
       <c r="X107" s="2"/>
       <c r="Y107" s="2"/>
-    </row>
-    <row r="108" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z107" s="2"/>
+      <c r="AA107" s="2"/>
+      <c r="AB107" s="2"/>
+    </row>
+    <row r="108" spans="1:28" ht="15.75" customHeight="1">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
@@ -3576,8 +4765,8 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
       <c r="N108" s="2"/>
       <c r="O108" s="2"/>
       <c r="P108" s="2"/>
@@ -3590,8 +4779,11 @@
       <c r="W108" s="2"/>
       <c r="X108" s="2"/>
       <c r="Y108" s="2"/>
-    </row>
-    <row r="109" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z108" s="2"/>
+      <c r="AA108" s="2"/>
+      <c r="AB108" s="2"/>
+    </row>
+    <row r="109" spans="1:28" ht="15.75" customHeight="1">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
@@ -3603,8 +4795,8 @@
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2"/>
+      <c r="L109" s="8"/>
+      <c r="M109" s="8"/>
       <c r="N109" s="2"/>
       <c r="O109" s="2"/>
       <c r="P109" s="2"/>
@@ -3617,8 +4809,11 @@
       <c r="W109" s="2"/>
       <c r="X109" s="2"/>
       <c r="Y109" s="2"/>
-    </row>
-    <row r="110" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z109" s="2"/>
+      <c r="AA109" s="2"/>
+      <c r="AB109" s="2"/>
+    </row>
+    <row r="110" spans="1:28" ht="15.75" customHeight="1">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
@@ -3630,8 +4825,8 @@
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
       <c r="K110" s="2"/>
-      <c r="L110" s="2"/>
-      <c r="M110" s="2"/>
+      <c r="L110" s="8"/>
+      <c r="M110" s="8"/>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -3644,8 +4839,11 @@
       <c r="W110" s="2"/>
       <c r="X110" s="2"/>
       <c r="Y110" s="2"/>
-    </row>
-    <row r="111" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z110" s="2"/>
+      <c r="AA110" s="2"/>
+      <c r="AB110" s="2"/>
+    </row>
+    <row r="111" spans="1:28" ht="15.75" customHeight="1">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
@@ -3657,8 +4855,8 @@
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
-      <c r="M111" s="2"/>
+      <c r="L111" s="8"/>
+      <c r="M111" s="8"/>
       <c r="N111" s="2"/>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -3671,8 +4869,11 @@
       <c r="W111" s="2"/>
       <c r="X111" s="2"/>
       <c r="Y111" s="2"/>
-    </row>
-    <row r="112" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z111" s="2"/>
+      <c r="AA111" s="2"/>
+      <c r="AB111" s="2"/>
+    </row>
+    <row r="112" spans="1:28" ht="15.75" customHeight="1">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
@@ -3684,8 +4885,8 @@
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
-      <c r="L112" s="2"/>
-      <c r="M112" s="2"/>
+      <c r="L112" s="8"/>
+      <c r="M112" s="8"/>
       <c r="N112" s="2"/>
       <c r="O112" s="2"/>
       <c r="P112" s="2"/>
@@ -3698,8 +4899,11 @@
       <c r="W112" s="2"/>
       <c r="X112" s="2"/>
       <c r="Y112" s="2"/>
-    </row>
-    <row r="113" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z112" s="2"/>
+      <c r="AA112" s="2"/>
+      <c r="AB112" s="2"/>
+    </row>
+    <row r="113" spans="1:28" ht="15.75" customHeight="1">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
@@ -3711,8 +4915,8 @@
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
-      <c r="L113" s="2"/>
-      <c r="M113" s="2"/>
+      <c r="L113" s="8"/>
+      <c r="M113" s="8"/>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
       <c r="P113" s="2"/>
@@ -3725,8 +4929,11 @@
       <c r="W113" s="2"/>
       <c r="X113" s="2"/>
       <c r="Y113" s="2"/>
-    </row>
-    <row r="114" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z113" s="2"/>
+      <c r="AA113" s="2"/>
+      <c r="AB113" s="2"/>
+    </row>
+    <row r="114" spans="1:28" ht="15.75" customHeight="1">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
@@ -3738,8 +4945,8 @@
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
-      <c r="L114" s="2"/>
-      <c r="M114" s="2"/>
+      <c r="L114" s="8"/>
+      <c r="M114" s="8"/>
       <c r="N114" s="2"/>
       <c r="O114" s="2"/>
       <c r="P114" s="2"/>
@@ -3752,8 +4959,11 @@
       <c r="W114" s="2"/>
       <c r="X114" s="2"/>
       <c r="Y114" s="2"/>
-    </row>
-    <row r="115" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z114" s="2"/>
+      <c r="AA114" s="2"/>
+      <c r="AB114" s="2"/>
+    </row>
+    <row r="115" spans="1:28" ht="15.75" customHeight="1">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
@@ -3765,8 +4975,8 @@
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
       <c r="K115" s="2"/>
-      <c r="L115" s="2"/>
-      <c r="M115" s="2"/>
+      <c r="L115" s="8"/>
+      <c r="M115" s="8"/>
       <c r="N115" s="2"/>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
@@ -3779,8 +4989,11 @@
       <c r="W115" s="2"/>
       <c r="X115" s="2"/>
       <c r="Y115" s="2"/>
-    </row>
-    <row r="116" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z115" s="2"/>
+      <c r="AA115" s="2"/>
+      <c r="AB115" s="2"/>
+    </row>
+    <row r="116" spans="1:28" ht="15.75" customHeight="1">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
@@ -3792,8 +5005,8 @@
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
       <c r="K116" s="2"/>
-      <c r="L116" s="2"/>
-      <c r="M116" s="2"/>
+      <c r="L116" s="8"/>
+      <c r="M116" s="8"/>
       <c r="N116" s="2"/>
       <c r="O116" s="2"/>
       <c r="P116" s="2"/>
@@ -3806,8 +5019,11 @@
       <c r="W116" s="2"/>
       <c r="X116" s="2"/>
       <c r="Y116" s="2"/>
-    </row>
-    <row r="117" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z116" s="2"/>
+      <c r="AA116" s="2"/>
+      <c r="AB116" s="2"/>
+    </row>
+    <row r="117" spans="1:28" ht="15.75" customHeight="1">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
@@ -3819,8 +5035,8 @@
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
       <c r="K117" s="2"/>
-      <c r="L117" s="2"/>
-      <c r="M117" s="2"/>
+      <c r="L117" s="8"/>
+      <c r="M117" s="8"/>
       <c r="N117" s="2"/>
       <c r="O117" s="2"/>
       <c r="P117" s="2"/>
@@ -3833,8 +5049,11 @@
       <c r="W117" s="2"/>
       <c r="X117" s="2"/>
       <c r="Y117" s="2"/>
-    </row>
-    <row r="118" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z117" s="2"/>
+      <c r="AA117" s="2"/>
+      <c r="AB117" s="2"/>
+    </row>
+    <row r="118" spans="1:28" ht="15.75" customHeight="1">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
@@ -3846,8 +5065,8 @@
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
       <c r="K118" s="2"/>
-      <c r="L118" s="2"/>
-      <c r="M118" s="2"/>
+      <c r="L118" s="8"/>
+      <c r="M118" s="8"/>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
       <c r="P118" s="2"/>
@@ -3860,8 +5079,11 @@
       <c r="W118" s="2"/>
       <c r="X118" s="2"/>
       <c r="Y118" s="2"/>
-    </row>
-    <row r="119" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z118" s="2"/>
+      <c r="AA118" s="2"/>
+      <c r="AB118" s="2"/>
+    </row>
+    <row r="119" spans="1:28" ht="15.75" customHeight="1">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -3873,8 +5095,8 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
-      <c r="M119" s="2"/>
+      <c r="L119" s="8"/>
+      <c r="M119" s="8"/>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -3887,8 +5109,11 @@
       <c r="W119" s="2"/>
       <c r="X119" s="2"/>
       <c r="Y119" s="2"/>
-    </row>
-    <row r="120" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z119" s="2"/>
+      <c r="AA119" s="2"/>
+      <c r="AB119" s="2"/>
+    </row>
+    <row r="120" spans="1:28" ht="15.75" customHeight="1">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
@@ -3900,8 +5125,8 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
-      <c r="L120" s="2"/>
-      <c r="M120" s="2"/>
+      <c r="L120" s="8"/>
+      <c r="M120" s="8"/>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
       <c r="P120" s="2"/>
@@ -3914,8 +5139,11 @@
       <c r="W120" s="2"/>
       <c r="X120" s="2"/>
       <c r="Y120" s="2"/>
-    </row>
-    <row r="121" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z120" s="2"/>
+      <c r="AA120" s="2"/>
+      <c r="AB120" s="2"/>
+    </row>
+    <row r="121" spans="1:28" ht="15.75" customHeight="1">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
@@ -3927,8 +5155,8 @@
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
-      <c r="L121" s="2"/>
-      <c r="M121" s="2"/>
+      <c r="L121" s="8"/>
+      <c r="M121" s="8"/>
       <c r="N121" s="2"/>
       <c r="O121" s="2"/>
       <c r="P121" s="2"/>
@@ -3941,8 +5169,11 @@
       <c r="W121" s="2"/>
       <c r="X121" s="2"/>
       <c r="Y121" s="2"/>
-    </row>
-    <row r="122" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z121" s="2"/>
+      <c r="AA121" s="2"/>
+      <c r="AB121" s="2"/>
+    </row>
+    <row r="122" spans="1:28" ht="15.75" customHeight="1">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
@@ -3954,8 +5185,8 @@
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
       <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-      <c r="M122" s="2"/>
+      <c r="L122" s="8"/>
+      <c r="M122" s="8"/>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
@@ -3968,8 +5199,11 @@
       <c r="W122" s="2"/>
       <c r="X122" s="2"/>
       <c r="Y122" s="2"/>
-    </row>
-    <row r="123" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z122" s="2"/>
+      <c r="AA122" s="2"/>
+      <c r="AB122" s="2"/>
+    </row>
+    <row r="123" spans="1:28" ht="15.75" customHeight="1">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
@@ -3981,8 +5215,8 @@
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-      <c r="M123" s="2"/>
+      <c r="L123" s="8"/>
+      <c r="M123" s="8"/>
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
       <c r="P123" s="2"/>
@@ -3995,8 +5229,11 @@
       <c r="W123" s="2"/>
       <c r="X123" s="2"/>
       <c r="Y123" s="2"/>
-    </row>
-    <row r="124" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z123" s="2"/>
+      <c r="AA123" s="2"/>
+      <c r="AB123" s="2"/>
+    </row>
+    <row r="124" spans="1:28" ht="15.75" customHeight="1">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
@@ -4008,8 +5245,8 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
-      <c r="M124" s="2"/>
+      <c r="L124" s="8"/>
+      <c r="M124" s="8"/>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
       <c r="P124" s="2"/>
@@ -4022,8 +5259,11 @@
       <c r="W124" s="2"/>
       <c r="X124" s="2"/>
       <c r="Y124" s="2"/>
-    </row>
-    <row r="125" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z124" s="2"/>
+      <c r="AA124" s="2"/>
+      <c r="AB124" s="2"/>
+    </row>
+    <row r="125" spans="1:28" ht="15.75" customHeight="1">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -4035,8 +5275,8 @@
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
       <c r="K125" s="2"/>
-      <c r="L125" s="2"/>
-      <c r="M125" s="2"/>
+      <c r="L125" s="8"/>
+      <c r="M125" s="8"/>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
       <c r="P125" s="2"/>
@@ -4049,8 +5289,11 @@
       <c r="W125" s="2"/>
       <c r="X125" s="2"/>
       <c r="Y125" s="2"/>
-    </row>
-    <row r="126" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z125" s="2"/>
+      <c r="AA125" s="2"/>
+      <c r="AB125" s="2"/>
+    </row>
+    <row r="126" spans="1:28" ht="15.75" customHeight="1">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
@@ -4062,8 +5305,8 @@
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
       <c r="K126" s="2"/>
-      <c r="L126" s="2"/>
-      <c r="M126" s="2"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
       <c r="P126" s="2"/>
@@ -4076,8 +5319,11 @@
       <c r="W126" s="2"/>
       <c r="X126" s="2"/>
       <c r="Y126" s="2"/>
-    </row>
-    <row r="127" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z126" s="2"/>
+      <c r="AA126" s="2"/>
+      <c r="AB126" s="2"/>
+    </row>
+    <row r="127" spans="1:28" ht="15.75" customHeight="1">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
@@ -4089,8 +5335,8 @@
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
       <c r="K127" s="2"/>
-      <c r="L127" s="2"/>
-      <c r="M127" s="2"/>
+      <c r="L127" s="8"/>
+      <c r="M127" s="8"/>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
       <c r="P127" s="2"/>
@@ -4103,8 +5349,11 @@
       <c r="W127" s="2"/>
       <c r="X127" s="2"/>
       <c r="Y127" s="2"/>
-    </row>
-    <row r="128" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z127" s="2"/>
+      <c r="AA127" s="2"/>
+      <c r="AB127" s="2"/>
+    </row>
+    <row r="128" spans="1:28" ht="15.75" customHeight="1">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
@@ -4116,8 +5365,8 @@
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
       <c r="K128" s="2"/>
-      <c r="L128" s="2"/>
-      <c r="M128" s="2"/>
+      <c r="L128" s="8"/>
+      <c r="M128" s="8"/>
       <c r="N128" s="2"/>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
@@ -4130,8 +5379,11 @@
       <c r="W128" s="2"/>
       <c r="X128" s="2"/>
       <c r="Y128" s="2"/>
-    </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z128" s="2"/>
+      <c r="AA128" s="2"/>
+      <c r="AB128" s="2"/>
+    </row>
+    <row r="129" spans="1:28" ht="15.75" customHeight="1">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
@@ -4143,8 +5395,8 @@
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
       <c r="K129" s="2"/>
-      <c r="L129" s="2"/>
-      <c r="M129" s="2"/>
+      <c r="L129" s="8"/>
+      <c r="M129" s="8"/>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
       <c r="P129" s="2"/>
@@ -4157,8 +5409,11 @@
       <c r="W129" s="2"/>
       <c r="X129" s="2"/>
       <c r="Y129" s="2"/>
-    </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z129" s="2"/>
+      <c r="AA129" s="2"/>
+      <c r="AB129" s="2"/>
+    </row>
+    <row r="130" spans="1:28" ht="15.75" customHeight="1">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
@@ -4170,8 +5425,8 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
       <c r="K130" s="2"/>
-      <c r="L130" s="2"/>
-      <c r="M130" s="2"/>
+      <c r="L130" s="8"/>
+      <c r="M130" s="8"/>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
       <c r="P130" s="2"/>
@@ -4184,8 +5439,11 @@
       <c r="W130" s="2"/>
       <c r="X130" s="2"/>
       <c r="Y130" s="2"/>
-    </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z130" s="2"/>
+      <c r="AA130" s="2"/>
+      <c r="AB130" s="2"/>
+    </row>
+    <row r="131" spans="1:28" ht="15.75" customHeight="1">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
@@ -4197,8 +5455,8 @@
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
       <c r="K131" s="2"/>
-      <c r="L131" s="2"/>
-      <c r="M131" s="2"/>
+      <c r="L131" s="8"/>
+      <c r="M131" s="8"/>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
       <c r="P131" s="2"/>
@@ -4211,8 +5469,11 @@
       <c r="W131" s="2"/>
       <c r="X131" s="2"/>
       <c r="Y131" s="2"/>
-    </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z131" s="2"/>
+      <c r="AA131" s="2"/>
+      <c r="AB131" s="2"/>
+    </row>
+    <row r="132" spans="1:28" ht="15.75" customHeight="1">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -4224,8 +5485,8 @@
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
       <c r="K132" s="2"/>
-      <c r="L132" s="2"/>
-      <c r="M132" s="2"/>
+      <c r="L132" s="8"/>
+      <c r="M132" s="8"/>
       <c r="N132" s="2"/>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
@@ -4238,8 +5499,11 @@
       <c r="W132" s="2"/>
       <c r="X132" s="2"/>
       <c r="Y132" s="2"/>
-    </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z132" s="2"/>
+      <c r="AA132" s="2"/>
+      <c r="AB132" s="2"/>
+    </row>
+    <row r="133" spans="1:28" ht="15.75" customHeight="1">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
@@ -4251,8 +5515,8 @@
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
       <c r="K133" s="2"/>
-      <c r="L133" s="2"/>
-      <c r="M133" s="2"/>
+      <c r="L133" s="8"/>
+      <c r="M133" s="8"/>
       <c r="N133" s="2"/>
       <c r="O133" s="2"/>
       <c r="P133" s="2"/>
@@ -4265,8 +5529,11 @@
       <c r="W133" s="2"/>
       <c r="X133" s="2"/>
       <c r="Y133" s="2"/>
-    </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z133" s="2"/>
+      <c r="AA133" s="2"/>
+      <c r="AB133" s="2"/>
+    </row>
+    <row r="134" spans="1:28" ht="15.75" customHeight="1">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
@@ -4278,8 +5545,8 @@
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
-      <c r="L134" s="2"/>
-      <c r="M134" s="2"/>
+      <c r="L134" s="8"/>
+      <c r="M134" s="8"/>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
@@ -4292,8 +5559,11 @@
       <c r="W134" s="2"/>
       <c r="X134" s="2"/>
       <c r="Y134" s="2"/>
-    </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z134" s="2"/>
+      <c r="AA134" s="2"/>
+      <c r="AB134" s="2"/>
+    </row>
+    <row r="135" spans="1:28" ht="15.75" customHeight="1">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
@@ -4305,8 +5575,8 @@
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
       <c r="K135" s="2"/>
-      <c r="L135" s="2"/>
-      <c r="M135" s="2"/>
+      <c r="L135" s="8"/>
+      <c r="M135" s="8"/>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -4319,8 +5589,11 @@
       <c r="W135" s="2"/>
       <c r="X135" s="2"/>
       <c r="Y135" s="2"/>
-    </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z135" s="2"/>
+      <c r="AA135" s="2"/>
+      <c r="AB135" s="2"/>
+    </row>
+    <row r="136" spans="1:28" ht="15.75" customHeight="1">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
@@ -4332,8 +5605,8 @@
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
       <c r="K136" s="2"/>
-      <c r="L136" s="2"/>
-      <c r="M136" s="2"/>
+      <c r="L136" s="8"/>
+      <c r="M136" s="8"/>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -4346,8 +5619,11 @@
       <c r="W136" s="2"/>
       <c r="X136" s="2"/>
       <c r="Y136" s="2"/>
-    </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z136" s="2"/>
+      <c r="AA136" s="2"/>
+      <c r="AB136" s="2"/>
+    </row>
+    <row r="137" spans="1:28" ht="15.75" customHeight="1">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
@@ -4359,8 +5635,8 @@
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
       <c r="K137" s="2"/>
-      <c r="L137" s="2"/>
-      <c r="M137" s="2"/>
+      <c r="L137" s="8"/>
+      <c r="M137" s="8"/>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
@@ -4373,8 +5649,11 @@
       <c r="W137" s="2"/>
       <c r="X137" s="2"/>
       <c r="Y137" s="2"/>
-    </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z137" s="2"/>
+      <c r="AA137" s="2"/>
+      <c r="AB137" s="2"/>
+    </row>
+    <row r="138" spans="1:28" ht="15.75" customHeight="1">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
@@ -4386,8 +5665,8 @@
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
       <c r="K138" s="2"/>
-      <c r="L138" s="2"/>
-      <c r="M138" s="2"/>
+      <c r="L138" s="8"/>
+      <c r="M138" s="8"/>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
@@ -4400,8 +5679,11 @@
       <c r="W138" s="2"/>
       <c r="X138" s="2"/>
       <c r="Y138" s="2"/>
-    </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z138" s="2"/>
+      <c r="AA138" s="2"/>
+      <c r="AB138" s="2"/>
+    </row>
+    <row r="139" spans="1:28" ht="15.75" customHeight="1">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
@@ -4413,8 +5695,8 @@
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
       <c r="K139" s="2"/>
-      <c r="L139" s="2"/>
-      <c r="M139" s="2"/>
+      <c r="L139" s="8"/>
+      <c r="M139" s="8"/>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
       <c r="P139" s="2"/>
@@ -4427,8 +5709,11 @@
       <c r="W139" s="2"/>
       <c r="X139" s="2"/>
       <c r="Y139" s="2"/>
-    </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z139" s="2"/>
+      <c r="AA139" s="2"/>
+      <c r="AB139" s="2"/>
+    </row>
+    <row r="140" spans="1:28" ht="15.75" customHeight="1">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
@@ -4440,8 +5725,8 @@
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
       <c r="K140" s="2"/>
-      <c r="L140" s="2"/>
-      <c r="M140" s="2"/>
+      <c r="L140" s="8"/>
+      <c r="M140" s="8"/>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
       <c r="P140" s="2"/>
@@ -4454,8 +5739,11 @@
       <c r="W140" s="2"/>
       <c r="X140" s="2"/>
       <c r="Y140" s="2"/>
-    </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z140" s="2"/>
+      <c r="AA140" s="2"/>
+      <c r="AB140" s="2"/>
+    </row>
+    <row r="141" spans="1:28" ht="15.75" customHeight="1">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
@@ -4467,8 +5755,8 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
       <c r="K141" s="2"/>
-      <c r="L141" s="2"/>
-      <c r="M141" s="2"/>
+      <c r="L141" s="8"/>
+      <c r="M141" s="8"/>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
       <c r="P141" s="2"/>
@@ -4481,8 +5769,11 @@
       <c r="W141" s="2"/>
       <c r="X141" s="2"/>
       <c r="Y141" s="2"/>
-    </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z141" s="2"/>
+      <c r="AA141" s="2"/>
+      <c r="AB141" s="2"/>
+    </row>
+    <row r="142" spans="1:28" ht="15.75" customHeight="1">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
@@ -4494,8 +5785,8 @@
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
       <c r="K142" s="2"/>
-      <c r="L142" s="2"/>
-      <c r="M142" s="2"/>
+      <c r="L142" s="8"/>
+      <c r="M142" s="8"/>
       <c r="N142" s="2"/>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -4508,8 +5799,11 @@
       <c r="W142" s="2"/>
       <c r="X142" s="2"/>
       <c r="Y142" s="2"/>
-    </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z142" s="2"/>
+      <c r="AA142" s="2"/>
+      <c r="AB142" s="2"/>
+    </row>
+    <row r="143" spans="1:28" ht="15.75" customHeight="1">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
@@ -4521,8 +5815,8 @@
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
       <c r="K143" s="2"/>
-      <c r="L143" s="2"/>
-      <c r="M143" s="2"/>
+      <c r="L143" s="8"/>
+      <c r="M143" s="8"/>
       <c r="N143" s="2"/>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -4535,8 +5829,11 @@
       <c r="W143" s="2"/>
       <c r="X143" s="2"/>
       <c r="Y143" s="2"/>
-    </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z143" s="2"/>
+      <c r="AA143" s="2"/>
+      <c r="AB143" s="2"/>
+    </row>
+    <row r="144" spans="1:28" ht="15.75" customHeight="1">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
@@ -4548,8 +5845,8 @@
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
       <c r="K144" s="2"/>
-      <c r="L144" s="2"/>
-      <c r="M144" s="2"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="8"/>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
       <c r="P144" s="2"/>
@@ -4562,8 +5859,11 @@
       <c r="W144" s="2"/>
       <c r="X144" s="2"/>
       <c r="Y144" s="2"/>
-    </row>
-    <row r="145" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z144" s="2"/>
+      <c r="AA144" s="2"/>
+      <c r="AB144" s="2"/>
+    </row>
+    <row r="145" spans="1:28" ht="15.75" customHeight="1">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
@@ -4575,8 +5875,8 @@
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
-      <c r="L145" s="2"/>
-      <c r="M145" s="2"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
       <c r="P145" s="2"/>
@@ -4589,8 +5889,11 @@
       <c r="W145" s="2"/>
       <c r="X145" s="2"/>
       <c r="Y145" s="2"/>
-    </row>
-    <row r="146" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z145" s="2"/>
+      <c r="AA145" s="2"/>
+      <c r="AB145" s="2"/>
+    </row>
+    <row r="146" spans="1:28" ht="15.75" customHeight="1">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
@@ -4602,8 +5905,8 @@
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
       <c r="K146" s="2"/>
-      <c r="L146" s="2"/>
-      <c r="M146" s="2"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
       <c r="P146" s="2"/>
@@ -4616,8 +5919,11 @@
       <c r="W146" s="2"/>
       <c r="X146" s="2"/>
       <c r="Y146" s="2"/>
-    </row>
-    <row r="147" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z146" s="2"/>
+      <c r="AA146" s="2"/>
+      <c r="AB146" s="2"/>
+    </row>
+    <row r="147" spans="1:28" ht="15.75" customHeight="1">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
@@ -4629,8 +5935,8 @@
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
       <c r="K147" s="2"/>
-      <c r="L147" s="2"/>
-      <c r="M147" s="2"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
       <c r="P147" s="2"/>
@@ -4643,8 +5949,11 @@
       <c r="W147" s="2"/>
       <c r="X147" s="2"/>
       <c r="Y147" s="2"/>
-    </row>
-    <row r="148" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z147" s="2"/>
+      <c r="AA147" s="2"/>
+      <c r="AB147" s="2"/>
+    </row>
+    <row r="148" spans="1:28" ht="15.75" customHeight="1">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
@@ -4656,8 +5965,8 @@
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
       <c r="K148" s="2"/>
-      <c r="L148" s="2"/>
-      <c r="M148" s="2"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
       <c r="P148" s="2"/>
@@ -4670,8 +5979,11 @@
       <c r="W148" s="2"/>
       <c r="X148" s="2"/>
       <c r="Y148" s="2"/>
-    </row>
-    <row r="149" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z148" s="2"/>
+      <c r="AA148" s="2"/>
+      <c r="AB148" s="2"/>
+    </row>
+    <row r="149" spans="1:28" ht="15.75" customHeight="1">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
@@ -4683,8 +5995,8 @@
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
       <c r="K149" s="2"/>
-      <c r="L149" s="2"/>
-      <c r="M149" s="2"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
       <c r="N149" s="2"/>
       <c r="O149" s="2"/>
       <c r="P149" s="2"/>
@@ -4697,8 +6009,11 @@
       <c r="W149" s="2"/>
       <c r="X149" s="2"/>
       <c r="Y149" s="2"/>
-    </row>
-    <row r="150" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z149" s="2"/>
+      <c r="AA149" s="2"/>
+      <c r="AB149" s="2"/>
+    </row>
+    <row r="150" spans="1:28" ht="15.75" customHeight="1">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
@@ -4710,8 +6025,8 @@
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
       <c r="K150" s="2"/>
-      <c r="L150" s="2"/>
-      <c r="M150" s="2"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="8"/>
       <c r="N150" s="2"/>
       <c r="O150" s="2"/>
       <c r="P150" s="2"/>
@@ -4724,8 +6039,11 @@
       <c r="W150" s="2"/>
       <c r="X150" s="2"/>
       <c r="Y150" s="2"/>
-    </row>
-    <row r="151" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z150" s="2"/>
+      <c r="AA150" s="2"/>
+      <c r="AB150" s="2"/>
+    </row>
+    <row r="151" spans="1:28" ht="15.75" customHeight="1">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
@@ -4737,8 +6055,8 @@
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
       <c r="K151" s="2"/>
-      <c r="L151" s="2"/>
-      <c r="M151" s="2"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="8"/>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
       <c r="P151" s="2"/>
@@ -4751,8 +6069,11 @@
       <c r="W151" s="2"/>
       <c r="X151" s="2"/>
       <c r="Y151" s="2"/>
-    </row>
-    <row r="152" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z151" s="2"/>
+      <c r="AA151" s="2"/>
+      <c r="AB151" s="2"/>
+    </row>
+    <row r="152" spans="1:28" ht="15.75" customHeight="1">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
@@ -4764,8 +6085,8 @@
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
       <c r="K152" s="2"/>
-      <c r="L152" s="2"/>
-      <c r="M152" s="2"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
       <c r="P152" s="2"/>
@@ -4778,8 +6099,11 @@
       <c r="W152" s="2"/>
       <c r="X152" s="2"/>
       <c r="Y152" s="2"/>
-    </row>
-    <row r="153" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z152" s="2"/>
+      <c r="AA152" s="2"/>
+      <c r="AB152" s="2"/>
+    </row>
+    <row r="153" spans="1:28" ht="15.75" customHeight="1">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
@@ -4791,8 +6115,8 @@
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
       <c r="K153" s="2"/>
-      <c r="L153" s="2"/>
-      <c r="M153" s="2"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="8"/>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
       <c r="P153" s="2"/>
@@ -4805,8 +6129,11 @@
       <c r="W153" s="2"/>
       <c r="X153" s="2"/>
       <c r="Y153" s="2"/>
-    </row>
-    <row r="154" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z153" s="2"/>
+      <c r="AA153" s="2"/>
+      <c r="AB153" s="2"/>
+    </row>
+    <row r="154" spans="1:28" ht="15.75" customHeight="1">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
@@ -4818,8 +6145,8 @@
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
       <c r="K154" s="2"/>
-      <c r="L154" s="2"/>
-      <c r="M154" s="2"/>
+      <c r="L154" s="8"/>
+      <c r="M154" s="8"/>
       <c r="N154" s="2"/>
       <c r="O154" s="2"/>
       <c r="P154" s="2"/>
@@ -4832,8 +6159,11 @@
       <c r="W154" s="2"/>
       <c r="X154" s="2"/>
       <c r="Y154" s="2"/>
-    </row>
-    <row r="155" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z154" s="2"/>
+      <c r="AA154" s="2"/>
+      <c r="AB154" s="2"/>
+    </row>
+    <row r="155" spans="1:28" ht="15.75" customHeight="1">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
@@ -4845,8 +6175,8 @@
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
       <c r="K155" s="2"/>
-      <c r="L155" s="2"/>
-      <c r="M155" s="2"/>
+      <c r="L155" s="8"/>
+      <c r="M155" s="8"/>
       <c r="N155" s="2"/>
       <c r="O155" s="2"/>
       <c r="P155" s="2"/>
@@ -4859,8 +6189,11 @@
       <c r="W155" s="2"/>
       <c r="X155" s="2"/>
       <c r="Y155" s="2"/>
-    </row>
-    <row r="156" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z155" s="2"/>
+      <c r="AA155" s="2"/>
+      <c r="AB155" s="2"/>
+    </row>
+    <row r="156" spans="1:28" ht="15.75" customHeight="1">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
@@ -4872,8 +6205,8 @@
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
-      <c r="L156" s="2"/>
-      <c r="M156" s="2"/>
+      <c r="L156" s="8"/>
+      <c r="M156" s="8"/>
       <c r="N156" s="2"/>
       <c r="O156" s="2"/>
       <c r="P156" s="2"/>
@@ -4886,8 +6219,11 @@
       <c r="W156" s="2"/>
       <c r="X156" s="2"/>
       <c r="Y156" s="2"/>
-    </row>
-    <row r="157" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z156" s="2"/>
+      <c r="AA156" s="2"/>
+      <c r="AB156" s="2"/>
+    </row>
+    <row r="157" spans="1:28" ht="15.75" customHeight="1">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
@@ -4899,8 +6235,8 @@
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
       <c r="K157" s="2"/>
-      <c r="L157" s="2"/>
-      <c r="M157" s="2"/>
+      <c r="L157" s="8"/>
+      <c r="M157" s="8"/>
       <c r="N157" s="2"/>
       <c r="O157" s="2"/>
       <c r="P157" s="2"/>
@@ -4913,8 +6249,11 @@
       <c r="W157" s="2"/>
       <c r="X157" s="2"/>
       <c r="Y157" s="2"/>
-    </row>
-    <row r="158" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z157" s="2"/>
+      <c r="AA157" s="2"/>
+      <c r="AB157" s="2"/>
+    </row>
+    <row r="158" spans="1:28" ht="15.75" customHeight="1">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
@@ -4926,8 +6265,8 @@
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
       <c r="K158" s="2"/>
-      <c r="L158" s="2"/>
-      <c r="M158" s="2"/>
+      <c r="L158" s="8"/>
+      <c r="M158" s="8"/>
       <c r="N158" s="2"/>
       <c r="O158" s="2"/>
       <c r="P158" s="2"/>
@@ -4940,8 +6279,11 @@
       <c r="W158" s="2"/>
       <c r="X158" s="2"/>
       <c r="Y158" s="2"/>
-    </row>
-    <row r="159" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z158" s="2"/>
+      <c r="AA158" s="2"/>
+      <c r="AB158" s="2"/>
+    </row>
+    <row r="159" spans="1:28" ht="15.75" customHeight="1">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
@@ -4953,8 +6295,8 @@
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
       <c r="K159" s="2"/>
-      <c r="L159" s="2"/>
-      <c r="M159" s="2"/>
+      <c r="L159" s="8"/>
+      <c r="M159" s="8"/>
       <c r="N159" s="2"/>
       <c r="O159" s="2"/>
       <c r="P159" s="2"/>
@@ -4967,8 +6309,11 @@
       <c r="W159" s="2"/>
       <c r="X159" s="2"/>
       <c r="Y159" s="2"/>
-    </row>
-    <row r="160" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z159" s="2"/>
+      <c r="AA159" s="2"/>
+      <c r="AB159" s="2"/>
+    </row>
+    <row r="160" spans="1:28" ht="15.75" customHeight="1">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
@@ -4980,8 +6325,8 @@
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
       <c r="K160" s="2"/>
-      <c r="L160" s="2"/>
-      <c r="M160" s="2"/>
+      <c r="L160" s="8"/>
+      <c r="M160" s="8"/>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
       <c r="P160" s="2"/>
@@ -4994,8 +6339,11 @@
       <c r="W160" s="2"/>
       <c r="X160" s="2"/>
       <c r="Y160" s="2"/>
-    </row>
-    <row r="161" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z160" s="2"/>
+      <c r="AA160" s="2"/>
+      <c r="AB160" s="2"/>
+    </row>
+    <row r="161" spans="1:28" ht="15.75" customHeight="1">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
@@ -5007,8 +6355,8 @@
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
       <c r="K161" s="2"/>
-      <c r="L161" s="2"/>
-      <c r="M161" s="2"/>
+      <c r="L161" s="8"/>
+      <c r="M161" s="8"/>
       <c r="N161" s="2"/>
       <c r="O161" s="2"/>
       <c r="P161" s="2"/>
@@ -5021,8 +6369,11 @@
       <c r="W161" s="2"/>
       <c r="X161" s="2"/>
       <c r="Y161" s="2"/>
-    </row>
-    <row r="162" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z161" s="2"/>
+      <c r="AA161" s="2"/>
+      <c r="AB161" s="2"/>
+    </row>
+    <row r="162" spans="1:28" ht="15.75" customHeight="1">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
@@ -5034,8 +6385,8 @@
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
       <c r="K162" s="2"/>
-      <c r="L162" s="2"/>
-      <c r="M162" s="2"/>
+      <c r="L162" s="8"/>
+      <c r="M162" s="8"/>
       <c r="N162" s="2"/>
       <c r="O162" s="2"/>
       <c r="P162" s="2"/>
@@ -5048,8 +6399,11 @@
       <c r="W162" s="2"/>
       <c r="X162" s="2"/>
       <c r="Y162" s="2"/>
-    </row>
-    <row r="163" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z162" s="2"/>
+      <c r="AA162" s="2"/>
+      <c r="AB162" s="2"/>
+    </row>
+    <row r="163" spans="1:28" ht="15.75" customHeight="1">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
@@ -5061,8 +6415,8 @@
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
       <c r="K163" s="2"/>
-      <c r="L163" s="2"/>
-      <c r="M163" s="2"/>
+      <c r="L163" s="8"/>
+      <c r="M163" s="8"/>
       <c r="N163" s="2"/>
       <c r="O163" s="2"/>
       <c r="P163" s="2"/>
@@ -5075,8 +6429,11 @@
       <c r="W163" s="2"/>
       <c r="X163" s="2"/>
       <c r="Y163" s="2"/>
-    </row>
-    <row r="164" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z163" s="2"/>
+      <c r="AA163" s="2"/>
+      <c r="AB163" s="2"/>
+    </row>
+    <row r="164" spans="1:28" ht="15.75" customHeight="1">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
@@ -5088,8 +6445,8 @@
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
       <c r="K164" s="2"/>
-      <c r="L164" s="2"/>
-      <c r="M164" s="2"/>
+      <c r="L164" s="8"/>
+      <c r="M164" s="8"/>
       <c r="N164" s="2"/>
       <c r="O164" s="2"/>
       <c r="P164" s="2"/>
@@ -5102,8 +6459,11 @@
       <c r="W164" s="2"/>
       <c r="X164" s="2"/>
       <c r="Y164" s="2"/>
-    </row>
-    <row r="165" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z164" s="2"/>
+      <c r="AA164" s="2"/>
+      <c r="AB164" s="2"/>
+    </row>
+    <row r="165" spans="1:28" ht="15.75" customHeight="1">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
@@ -5115,8 +6475,8 @@
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
       <c r="K165" s="2"/>
-      <c r="L165" s="2"/>
-      <c r="M165" s="2"/>
+      <c r="L165" s="8"/>
+      <c r="M165" s="8"/>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
       <c r="P165" s="2"/>
@@ -5129,8 +6489,11 @@
       <c r="W165" s="2"/>
       <c r="X165" s="2"/>
       <c r="Y165" s="2"/>
-    </row>
-    <row r="166" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z165" s="2"/>
+      <c r="AA165" s="2"/>
+      <c r="AB165" s="2"/>
+    </row>
+    <row r="166" spans="1:28" ht="15.75" customHeight="1">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
@@ -5142,8 +6505,8 @@
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
       <c r="K166" s="2"/>
-      <c r="L166" s="2"/>
-      <c r="M166" s="2"/>
+      <c r="L166" s="8"/>
+      <c r="M166" s="8"/>
       <c r="N166" s="2"/>
       <c r="O166" s="2"/>
       <c r="P166" s="2"/>
@@ -5156,8 +6519,11 @@
       <c r="W166" s="2"/>
       <c r="X166" s="2"/>
       <c r="Y166" s="2"/>
-    </row>
-    <row r="167" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z166" s="2"/>
+      <c r="AA166" s="2"/>
+      <c r="AB166" s="2"/>
+    </row>
+    <row r="167" spans="1:28" ht="15.75" customHeight="1">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
@@ -5169,8 +6535,8 @@
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
       <c r="K167" s="2"/>
-      <c r="L167" s="2"/>
-      <c r="M167" s="2"/>
+      <c r="L167" s="8"/>
+      <c r="M167" s="8"/>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
       <c r="P167" s="2"/>
@@ -5183,8 +6549,11 @@
       <c r="W167" s="2"/>
       <c r="X167" s="2"/>
       <c r="Y167" s="2"/>
-    </row>
-    <row r="168" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z167" s="2"/>
+      <c r="AA167" s="2"/>
+      <c r="AB167" s="2"/>
+    </row>
+    <row r="168" spans="1:28" ht="15.75" customHeight="1">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
@@ -5196,8 +6565,8 @@
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
       <c r="K168" s="2"/>
-      <c r="L168" s="2"/>
-      <c r="M168" s="2"/>
+      <c r="L168" s="8"/>
+      <c r="M168" s="8"/>
       <c r="N168" s="2"/>
       <c r="O168" s="2"/>
       <c r="P168" s="2"/>
@@ -5210,8 +6579,11 @@
       <c r="W168" s="2"/>
       <c r="X168" s="2"/>
       <c r="Y168" s="2"/>
-    </row>
-    <row r="169" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z168" s="2"/>
+      <c r="AA168" s="2"/>
+      <c r="AB168" s="2"/>
+    </row>
+    <row r="169" spans="1:28" ht="15.75" customHeight="1">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
@@ -5223,8 +6595,8 @@
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
       <c r="K169" s="2"/>
-      <c r="L169" s="2"/>
-      <c r="M169" s="2"/>
+      <c r="L169" s="8"/>
+      <c r="M169" s="8"/>
       <c r="N169" s="2"/>
       <c r="O169" s="2"/>
       <c r="P169" s="2"/>
@@ -5237,8 +6609,11 @@
       <c r="W169" s="2"/>
       <c r="X169" s="2"/>
       <c r="Y169" s="2"/>
-    </row>
-    <row r="170" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z169" s="2"/>
+      <c r="AA169" s="2"/>
+      <c r="AB169" s="2"/>
+    </row>
+    <row r="170" spans="1:28" ht="15.75" customHeight="1">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
@@ -5250,8 +6625,8 @@
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
       <c r="K170" s="2"/>
-      <c r="L170" s="2"/>
-      <c r="M170" s="2"/>
+      <c r="L170" s="8"/>
+      <c r="M170" s="8"/>
       <c r="N170" s="2"/>
       <c r="O170" s="2"/>
       <c r="P170" s="2"/>
@@ -5264,8 +6639,11 @@
       <c r="W170" s="2"/>
       <c r="X170" s="2"/>
       <c r="Y170" s="2"/>
-    </row>
-    <row r="171" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z170" s="2"/>
+      <c r="AA170" s="2"/>
+      <c r="AB170" s="2"/>
+    </row>
+    <row r="171" spans="1:28" ht="15.75" customHeight="1">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -5277,8 +6655,8 @@
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
       <c r="K171" s="2"/>
-      <c r="L171" s="2"/>
-      <c r="M171" s="2"/>
+      <c r="L171" s="8"/>
+      <c r="M171" s="8"/>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
       <c r="P171" s="2"/>
@@ -5291,8 +6669,11 @@
       <c r="W171" s="2"/>
       <c r="X171" s="2"/>
       <c r="Y171" s="2"/>
-    </row>
-    <row r="172" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z171" s="2"/>
+      <c r="AA171" s="2"/>
+      <c r="AB171" s="2"/>
+    </row>
+    <row r="172" spans="1:28" ht="15.75" customHeight="1">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
@@ -5304,8 +6685,8 @@
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
       <c r="K172" s="2"/>
-      <c r="L172" s="2"/>
-      <c r="M172" s="2"/>
+      <c r="L172" s="8"/>
+      <c r="M172" s="8"/>
       <c r="N172" s="2"/>
       <c r="O172" s="2"/>
       <c r="P172" s="2"/>
@@ -5318,8 +6699,11 @@
       <c r="W172" s="2"/>
       <c r="X172" s="2"/>
       <c r="Y172" s="2"/>
-    </row>
-    <row r="173" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z172" s="2"/>
+      <c r="AA172" s="2"/>
+      <c r="AB172" s="2"/>
+    </row>
+    <row r="173" spans="1:28" ht="15.75" customHeight="1">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
@@ -5331,8 +6715,8 @@
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
       <c r="K173" s="2"/>
-      <c r="L173" s="2"/>
-      <c r="M173" s="2"/>
+      <c r="L173" s="8"/>
+      <c r="M173" s="8"/>
       <c r="N173" s="2"/>
       <c r="O173" s="2"/>
       <c r="P173" s="2"/>
@@ -5345,8 +6729,11 @@
       <c r="W173" s="2"/>
       <c r="X173" s="2"/>
       <c r="Y173" s="2"/>
-    </row>
-    <row r="174" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z173" s="2"/>
+      <c r="AA173" s="2"/>
+      <c r="AB173" s="2"/>
+    </row>
+    <row r="174" spans="1:28" ht="15.75" customHeight="1">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
@@ -5358,8 +6745,8 @@
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
       <c r="K174" s="2"/>
-      <c r="L174" s="2"/>
-      <c r="M174" s="2"/>
+      <c r="L174" s="8"/>
+      <c r="M174" s="8"/>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
       <c r="P174" s="2"/>
@@ -5372,8 +6759,11 @@
       <c r="W174" s="2"/>
       <c r="X174" s="2"/>
       <c r="Y174" s="2"/>
-    </row>
-    <row r="175" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z174" s="2"/>
+      <c r="AA174" s="2"/>
+      <c r="AB174" s="2"/>
+    </row>
+    <row r="175" spans="1:28" ht="15.75" customHeight="1">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
@@ -5385,8 +6775,8 @@
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
       <c r="K175" s="2"/>
-      <c r="L175" s="2"/>
-      <c r="M175" s="2"/>
+      <c r="L175" s="8"/>
+      <c r="M175" s="8"/>
       <c r="N175" s="2"/>
       <c r="O175" s="2"/>
       <c r="P175" s="2"/>
@@ -5399,8 +6789,11 @@
       <c r="W175" s="2"/>
       <c r="X175" s="2"/>
       <c r="Y175" s="2"/>
-    </row>
-    <row r="176" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z175" s="2"/>
+      <c r="AA175" s="2"/>
+      <c r="AB175" s="2"/>
+    </row>
+    <row r="176" spans="1:28" ht="15.75" customHeight="1">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
@@ -5412,8 +6805,8 @@
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
       <c r="K176" s="2"/>
-      <c r="L176" s="2"/>
-      <c r="M176" s="2"/>
+      <c r="L176" s="8"/>
+      <c r="M176" s="8"/>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
       <c r="P176" s="2"/>
@@ -5426,8 +6819,11 @@
       <c r="W176" s="2"/>
       <c r="X176" s="2"/>
       <c r="Y176" s="2"/>
-    </row>
-    <row r="177" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z176" s="2"/>
+      <c r="AA176" s="2"/>
+      <c r="AB176" s="2"/>
+    </row>
+    <row r="177" spans="1:28" ht="15.75" customHeight="1">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
@@ -5439,8 +6835,8 @@
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
       <c r="K177" s="2"/>
-      <c r="L177" s="2"/>
-      <c r="M177" s="2"/>
+      <c r="L177" s="8"/>
+      <c r="M177" s="8"/>
       <c r="N177" s="2"/>
       <c r="O177" s="2"/>
       <c r="P177" s="2"/>
@@ -5453,8 +6849,11 @@
       <c r="W177" s="2"/>
       <c r="X177" s="2"/>
       <c r="Y177" s="2"/>
-    </row>
-    <row r="178" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z177" s="2"/>
+      <c r="AA177" s="2"/>
+      <c r="AB177" s="2"/>
+    </row>
+    <row r="178" spans="1:28" ht="15.75" customHeight="1">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
@@ -5466,8 +6865,8 @@
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
       <c r="K178" s="2"/>
-      <c r="L178" s="2"/>
-      <c r="M178" s="2"/>
+      <c r="L178" s="8"/>
+      <c r="M178" s="8"/>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
       <c r="P178" s="2"/>
@@ -5480,8 +6879,11 @@
       <c r="W178" s="2"/>
       <c r="X178" s="2"/>
       <c r="Y178" s="2"/>
-    </row>
-    <row r="179" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z178" s="2"/>
+      <c r="AA178" s="2"/>
+      <c r="AB178" s="2"/>
+    </row>
+    <row r="179" spans="1:28" ht="15.75" customHeight="1">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
@@ -5493,8 +6895,8 @@
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
       <c r="K179" s="2"/>
-      <c r="L179" s="2"/>
-      <c r="M179" s="2"/>
+      <c r="L179" s="8"/>
+      <c r="M179" s="8"/>
       <c r="N179" s="2"/>
       <c r="O179" s="2"/>
       <c r="P179" s="2"/>
@@ -5507,8 +6909,11 @@
       <c r="W179" s="2"/>
       <c r="X179" s="2"/>
       <c r="Y179" s="2"/>
-    </row>
-    <row r="180" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z179" s="2"/>
+      <c r="AA179" s="2"/>
+      <c r="AB179" s="2"/>
+    </row>
+    <row r="180" spans="1:28" ht="15.75" customHeight="1">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
@@ -5520,8 +6925,8 @@
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
       <c r="K180" s="2"/>
-      <c r="L180" s="2"/>
-      <c r="M180" s="2"/>
+      <c r="L180" s="8"/>
+      <c r="M180" s="8"/>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
       <c r="P180" s="2"/>
@@ -5534,8 +6939,11 @@
       <c r="W180" s="2"/>
       <c r="X180" s="2"/>
       <c r="Y180" s="2"/>
-    </row>
-    <row r="181" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z180" s="2"/>
+      <c r="AA180" s="2"/>
+      <c r="AB180" s="2"/>
+    </row>
+    <row r="181" spans="1:28" ht="15.75" customHeight="1">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
@@ -5547,8 +6955,8 @@
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
       <c r="K181" s="2"/>
-      <c r="L181" s="2"/>
-      <c r="M181" s="2"/>
+      <c r="L181" s="8"/>
+      <c r="M181" s="8"/>
       <c r="N181" s="2"/>
       <c r="O181" s="2"/>
       <c r="P181" s="2"/>
@@ -5561,8 +6969,11 @@
       <c r="W181" s="2"/>
       <c r="X181" s="2"/>
       <c r="Y181" s="2"/>
-    </row>
-    <row r="182" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z181" s="2"/>
+      <c r="AA181" s="2"/>
+      <c r="AB181" s="2"/>
+    </row>
+    <row r="182" spans="1:28" ht="15.75" customHeight="1">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
@@ -5574,8 +6985,8 @@
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
-      <c r="L182" s="2"/>
-      <c r="M182" s="2"/>
+      <c r="L182" s="8"/>
+      <c r="M182" s="8"/>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
       <c r="P182" s="2"/>
@@ -5588,8 +6999,11 @@
       <c r="W182" s="2"/>
       <c r="X182" s="2"/>
       <c r="Y182" s="2"/>
-    </row>
-    <row r="183" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z182" s="2"/>
+      <c r="AA182" s="2"/>
+      <c r="AB182" s="2"/>
+    </row>
+    <row r="183" spans="1:28" ht="15.75" customHeight="1">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
@@ -5601,8 +7015,8 @@
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
-      <c r="L183" s="2"/>
-      <c r="M183" s="2"/>
+      <c r="L183" s="8"/>
+      <c r="M183" s="8"/>
       <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" s="2"/>
@@ -5615,8 +7029,11 @@
       <c r="W183" s="2"/>
       <c r="X183" s="2"/>
       <c r="Y183" s="2"/>
-    </row>
-    <row r="184" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z183" s="2"/>
+      <c r="AA183" s="2"/>
+      <c r="AB183" s="2"/>
+    </row>
+    <row r="184" spans="1:28" ht="15.75" customHeight="1">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
@@ -5628,8 +7045,8 @@
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
-      <c r="L184" s="2"/>
-      <c r="M184" s="2"/>
+      <c r="L184" s="8"/>
+      <c r="M184" s="8"/>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
       <c r="P184" s="2"/>
@@ -5642,8 +7059,11 @@
       <c r="W184" s="2"/>
       <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
-    </row>
-    <row r="185" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z184" s="2"/>
+      <c r="AA184" s="2"/>
+      <c r="AB184" s="2"/>
+    </row>
+    <row r="185" spans="1:28" ht="15.75" customHeight="1">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
@@ -5655,8 +7075,8 @@
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
-      <c r="L185" s="2"/>
-      <c r="M185" s="2"/>
+      <c r="L185" s="8"/>
+      <c r="M185" s="8"/>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
       <c r="P185" s="2"/>
@@ -5669,8 +7089,11 @@
       <c r="W185" s="2"/>
       <c r="X185" s="2"/>
       <c r="Y185" s="2"/>
-    </row>
-    <row r="186" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z185" s="2"/>
+      <c r="AA185" s="2"/>
+      <c r="AB185" s="2"/>
+    </row>
+    <row r="186" spans="1:28" ht="15.75" customHeight="1">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
@@ -5682,8 +7105,8 @@
       <c r="I186" s="2"/>
       <c r="J186" s="2"/>
       <c r="K186" s="2"/>
-      <c r="L186" s="2"/>
-      <c r="M186" s="2"/>
+      <c r="L186" s="8"/>
+      <c r="M186" s="8"/>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
       <c r="P186" s="2"/>
@@ -5696,8 +7119,11 @@
       <c r="W186" s="2"/>
       <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
-    </row>
-    <row r="187" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z186" s="2"/>
+      <c r="AA186" s="2"/>
+      <c r="AB186" s="2"/>
+    </row>
+    <row r="187" spans="1:28" ht="15.75" customHeight="1">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
@@ -5709,8 +7135,8 @@
       <c r="I187" s="2"/>
       <c r="J187" s="2"/>
       <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
-      <c r="M187" s="2"/>
+      <c r="L187" s="8"/>
+      <c r="M187" s="8"/>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
       <c r="P187" s="2"/>
@@ -5723,8 +7149,11 @@
       <c r="W187" s="2"/>
       <c r="X187" s="2"/>
       <c r="Y187" s="2"/>
-    </row>
-    <row r="188" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z187" s="2"/>
+      <c r="AA187" s="2"/>
+      <c r="AB187" s="2"/>
+    </row>
+    <row r="188" spans="1:28" ht="15.75" customHeight="1">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
@@ -5736,8 +7165,8 @@
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
       <c r="K188" s="2"/>
-      <c r="L188" s="2"/>
-      <c r="M188" s="2"/>
+      <c r="L188" s="8"/>
+      <c r="M188" s="8"/>
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
       <c r="P188" s="2"/>
@@ -5750,8 +7179,11 @@
       <c r="W188" s="2"/>
       <c r="X188" s="2"/>
       <c r="Y188" s="2"/>
-    </row>
-    <row r="189" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z188" s="2"/>
+      <c r="AA188" s="2"/>
+      <c r="AB188" s="2"/>
+    </row>
+    <row r="189" spans="1:28" ht="15.75" customHeight="1">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
@@ -5763,8 +7195,8 @@
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
       <c r="K189" s="2"/>
-      <c r="L189" s="2"/>
-      <c r="M189" s="2"/>
+      <c r="L189" s="8"/>
+      <c r="M189" s="8"/>
       <c r="N189" s="2"/>
       <c r="O189" s="2"/>
       <c r="P189" s="2"/>
@@ -5777,8 +7209,11 @@
       <c r="W189" s="2"/>
       <c r="X189" s="2"/>
       <c r="Y189" s="2"/>
-    </row>
-    <row r="190" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z189" s="2"/>
+      <c r="AA189" s="2"/>
+      <c r="AB189" s="2"/>
+    </row>
+    <row r="190" spans="1:28" ht="15.75" customHeight="1">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
@@ -5790,8 +7225,8 @@
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
       <c r="K190" s="2"/>
-      <c r="L190" s="2"/>
-      <c r="M190" s="2"/>
+      <c r="L190" s="8"/>
+      <c r="M190" s="8"/>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
       <c r="P190" s="2"/>
@@ -5804,8 +7239,11 @@
       <c r="W190" s="2"/>
       <c r="X190" s="2"/>
       <c r="Y190" s="2"/>
-    </row>
-    <row r="191" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z190" s="2"/>
+      <c r="AA190" s="2"/>
+      <c r="AB190" s="2"/>
+    </row>
+    <row r="191" spans="1:28" ht="15.75" customHeight="1">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
@@ -5817,8 +7255,8 @@
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
       <c r="K191" s="2"/>
-      <c r="L191" s="2"/>
-      <c r="M191" s="2"/>
+      <c r="L191" s="8"/>
+      <c r="M191" s="8"/>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
       <c r="P191" s="2"/>
@@ -5831,8 +7269,11 @@
       <c r="W191" s="2"/>
       <c r="X191" s="2"/>
       <c r="Y191" s="2"/>
-    </row>
-    <row r="192" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z191" s="2"/>
+      <c r="AA191" s="2"/>
+      <c r="AB191" s="2"/>
+    </row>
+    <row r="192" spans="1:28" ht="15.75" customHeight="1">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
@@ -5844,8 +7285,8 @@
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
       <c r="K192" s="2"/>
-      <c r="L192" s="2"/>
-      <c r="M192" s="2"/>
+      <c r="L192" s="8"/>
+      <c r="M192" s="8"/>
       <c r="N192" s="2"/>
       <c r="O192" s="2"/>
       <c r="P192" s="2"/>
@@ -5858,8 +7299,11 @@
       <c r="W192" s="2"/>
       <c r="X192" s="2"/>
       <c r="Y192" s="2"/>
-    </row>
-    <row r="193" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z192" s="2"/>
+      <c r="AA192" s="2"/>
+      <c r="AB192" s="2"/>
+    </row>
+    <row r="193" spans="1:28" ht="15.75" customHeight="1">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
@@ -5871,8 +7315,8 @@
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
       <c r="K193" s="2"/>
-      <c r="L193" s="2"/>
-      <c r="M193" s="2"/>
+      <c r="L193" s="8"/>
+      <c r="M193" s="8"/>
       <c r="N193" s="2"/>
       <c r="O193" s="2"/>
       <c r="P193" s="2"/>
@@ -5885,8 +7329,11 @@
       <c r="W193" s="2"/>
       <c r="X193" s="2"/>
       <c r="Y193" s="2"/>
-    </row>
-    <row r="194" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z193" s="2"/>
+      <c r="AA193" s="2"/>
+      <c r="AB193" s="2"/>
+    </row>
+    <row r="194" spans="1:28" ht="15.75" customHeight="1">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
@@ -5898,8 +7345,8 @@
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
       <c r="K194" s="2"/>
-      <c r="L194" s="2"/>
-      <c r="M194" s="2"/>
+      <c r="L194" s="8"/>
+      <c r="M194" s="8"/>
       <c r="N194" s="2"/>
       <c r="O194" s="2"/>
       <c r="P194" s="2"/>
@@ -5912,8 +7359,11 @@
       <c r="W194" s="2"/>
       <c r="X194" s="2"/>
       <c r="Y194" s="2"/>
-    </row>
-    <row r="195" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z194" s="2"/>
+      <c r="AA194" s="2"/>
+      <c r="AB194" s="2"/>
+    </row>
+    <row r="195" spans="1:28" ht="15.75" customHeight="1">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
@@ -5925,8 +7375,8 @@
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
-      <c r="L195" s="2"/>
-      <c r="M195" s="2"/>
+      <c r="L195" s="8"/>
+      <c r="M195" s="8"/>
       <c r="N195" s="2"/>
       <c r="O195" s="2"/>
       <c r="P195" s="2"/>
@@ -5939,8 +7389,11 @@
       <c r="W195" s="2"/>
       <c r="X195" s="2"/>
       <c r="Y195" s="2"/>
-    </row>
-    <row r="196" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z195" s="2"/>
+      <c r="AA195" s="2"/>
+      <c r="AB195" s="2"/>
+    </row>
+    <row r="196" spans="1:28" ht="15.75" customHeight="1">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
@@ -5952,8 +7405,8 @@
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
       <c r="K196" s="2"/>
-      <c r="L196" s="2"/>
-      <c r="M196" s="2"/>
+      <c r="L196" s="8"/>
+      <c r="M196" s="8"/>
       <c r="N196" s="2"/>
       <c r="O196" s="2"/>
       <c r="P196" s="2"/>
@@ -5966,8 +7419,11 @@
       <c r="W196" s="2"/>
       <c r="X196" s="2"/>
       <c r="Y196" s="2"/>
-    </row>
-    <row r="197" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z196" s="2"/>
+      <c r="AA196" s="2"/>
+      <c r="AB196" s="2"/>
+    </row>
+    <row r="197" spans="1:28" ht="15.75" customHeight="1">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
@@ -5979,8 +7435,8 @@
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
       <c r="K197" s="2"/>
-      <c r="L197" s="2"/>
-      <c r="M197" s="2"/>
+      <c r="L197" s="8"/>
+      <c r="M197" s="8"/>
       <c r="N197" s="2"/>
       <c r="O197" s="2"/>
       <c r="P197" s="2"/>
@@ -5993,8 +7449,11 @@
       <c r="W197" s="2"/>
       <c r="X197" s="2"/>
       <c r="Y197" s="2"/>
-    </row>
-    <row r="198" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z197" s="2"/>
+      <c r="AA197" s="2"/>
+      <c r="AB197" s="2"/>
+    </row>
+    <row r="198" spans="1:28" ht="15.75" customHeight="1">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
@@ -6006,8 +7465,8 @@
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
       <c r="K198" s="2"/>
-      <c r="L198" s="2"/>
-      <c r="M198" s="2"/>
+      <c r="L198" s="8"/>
+      <c r="M198" s="8"/>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
       <c r="P198" s="2"/>
@@ -6020,8 +7479,11 @@
       <c r="W198" s="2"/>
       <c r="X198" s="2"/>
       <c r="Y198" s="2"/>
-    </row>
-    <row r="199" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z198" s="2"/>
+      <c r="AA198" s="2"/>
+      <c r="AB198" s="2"/>
+    </row>
+    <row r="199" spans="1:28" ht="15.75" customHeight="1">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
@@ -6033,8 +7495,8 @@
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
       <c r="K199" s="2"/>
-      <c r="L199" s="2"/>
-      <c r="M199" s="2"/>
+      <c r="L199" s="8"/>
+      <c r="M199" s="8"/>
       <c r="N199" s="2"/>
       <c r="O199" s="2"/>
       <c r="P199" s="2"/>
@@ -6047,8 +7509,11 @@
       <c r="W199" s="2"/>
       <c r="X199" s="2"/>
       <c r="Y199" s="2"/>
-    </row>
-    <row r="200" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z199" s="2"/>
+      <c r="AA199" s="2"/>
+      <c r="AB199" s="2"/>
+    </row>
+    <row r="200" spans="1:28" ht="15.75" customHeight="1">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
@@ -6060,8 +7525,8 @@
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
-      <c r="L200" s="2"/>
-      <c r="M200" s="2"/>
+      <c r="L200" s="8"/>
+      <c r="M200" s="8"/>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
       <c r="P200" s="2"/>
@@ -6074,8 +7539,11 @@
       <c r="W200" s="2"/>
       <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
-    </row>
-    <row r="201" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z200" s="2"/>
+      <c r="AA200" s="2"/>
+      <c r="AB200" s="2"/>
+    </row>
+    <row r="201" spans="1:28" ht="15.75" customHeight="1">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
@@ -6087,8 +7555,8 @@
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
-      <c r="L201" s="2"/>
-      <c r="M201" s="2"/>
+      <c r="L201" s="8"/>
+      <c r="M201" s="8"/>
       <c r="N201" s="2"/>
       <c r="O201" s="2"/>
       <c r="P201" s="2"/>
@@ -6101,8 +7569,11 @@
       <c r="W201" s="2"/>
       <c r="X201" s="2"/>
       <c r="Y201" s="2"/>
-    </row>
-    <row r="202" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z201" s="2"/>
+      <c r="AA201" s="2"/>
+      <c r="AB201" s="2"/>
+    </row>
+    <row r="202" spans="1:28" ht="15.75" customHeight="1">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
@@ -6114,8 +7585,8 @@
       <c r="I202" s="2"/>
       <c r="J202" s="2"/>
       <c r="K202" s="2"/>
-      <c r="L202" s="2"/>
-      <c r="M202" s="2"/>
+      <c r="L202" s="8"/>
+      <c r="M202" s="8"/>
       <c r="N202" s="2"/>
       <c r="O202" s="2"/>
       <c r="P202" s="2"/>
@@ -6128,8 +7599,11 @@
       <c r="W202" s="2"/>
       <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
-    </row>
-    <row r="203" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z202" s="2"/>
+      <c r="AA202" s="2"/>
+      <c r="AB202" s="2"/>
+    </row>
+    <row r="203" spans="1:28" ht="15.75" customHeight="1">
       <c r="A203" s="2"/>
       <c r="B203" s="2"/>
       <c r="C203" s="2"/>
@@ -6141,8 +7615,8 @@
       <c r="I203" s="2"/>
       <c r="J203" s="2"/>
       <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
-      <c r="M203" s="2"/>
+      <c r="L203" s="8"/>
+      <c r="M203" s="8"/>
       <c r="N203" s="2"/>
       <c r="O203" s="2"/>
       <c r="P203" s="2"/>
@@ -6155,8 +7629,11 @@
       <c r="W203" s="2"/>
       <c r="X203" s="2"/>
       <c r="Y203" s="2"/>
-    </row>
-    <row r="204" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z203" s="2"/>
+      <c r="AA203" s="2"/>
+      <c r="AB203" s="2"/>
+    </row>
+    <row r="204" spans="1:28" ht="15.75" customHeight="1">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
@@ -6168,8 +7645,8 @@
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
       <c r="K204" s="2"/>
-      <c r="L204" s="2"/>
-      <c r="M204" s="2"/>
+      <c r="L204" s="8"/>
+      <c r="M204" s="8"/>
       <c r="N204" s="2"/>
       <c r="O204" s="2"/>
       <c r="P204" s="2"/>
@@ -6182,8 +7659,11 @@
       <c r="W204" s="2"/>
       <c r="X204" s="2"/>
       <c r="Y204" s="2"/>
-    </row>
-    <row r="205" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z204" s="2"/>
+      <c r="AA204" s="2"/>
+      <c r="AB204" s="2"/>
+    </row>
+    <row r="205" spans="1:28" ht="15.75" customHeight="1">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -6195,8 +7675,8 @@
       <c r="I205" s="2"/>
       <c r="J205" s="2"/>
       <c r="K205" s="2"/>
-      <c r="L205" s="2"/>
-      <c r="M205" s="2"/>
+      <c r="L205" s="8"/>
+      <c r="M205" s="8"/>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
       <c r="P205" s="2"/>
@@ -6209,8 +7689,11 @@
       <c r="W205" s="2"/>
       <c r="X205" s="2"/>
       <c r="Y205" s="2"/>
-    </row>
-    <row r="206" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z205" s="2"/>
+      <c r="AA205" s="2"/>
+      <c r="AB205" s="2"/>
+    </row>
+    <row r="206" spans="1:28" ht="15.75" customHeight="1">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -6222,8 +7705,8 @@
       <c r="I206" s="2"/>
       <c r="J206" s="2"/>
       <c r="K206" s="2"/>
-      <c r="L206" s="2"/>
-      <c r="M206" s="2"/>
+      <c r="L206" s="8"/>
+      <c r="M206" s="8"/>
       <c r="N206" s="2"/>
       <c r="O206" s="2"/>
       <c r="P206" s="2"/>
@@ -6236,8 +7719,11 @@
       <c r="W206" s="2"/>
       <c r="X206" s="2"/>
       <c r="Y206" s="2"/>
-    </row>
-    <row r="207" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z206" s="2"/>
+      <c r="AA206" s="2"/>
+      <c r="AB206" s="2"/>
+    </row>
+    <row r="207" spans="1:28" ht="15.75" customHeight="1">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -6249,8 +7735,8 @@
       <c r="I207" s="2"/>
       <c r="J207" s="2"/>
       <c r="K207" s="2"/>
-      <c r="L207" s="2"/>
-      <c r="M207" s="2"/>
+      <c r="L207" s="8"/>
+      <c r="M207" s="8"/>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
       <c r="P207" s="2"/>
@@ -6263,8 +7749,11 @@
       <c r="W207" s="2"/>
       <c r="X207" s="2"/>
       <c r="Y207" s="2"/>
-    </row>
-    <row r="208" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z207" s="2"/>
+      <c r="AA207" s="2"/>
+      <c r="AB207" s="2"/>
+    </row>
+    <row r="208" spans="1:28" ht="15.75" customHeight="1">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -6276,8 +7765,8 @@
       <c r="I208" s="2"/>
       <c r="J208" s="2"/>
       <c r="K208" s="2"/>
-      <c r="L208" s="2"/>
-      <c r="M208" s="2"/>
+      <c r="L208" s="8"/>
+      <c r="M208" s="8"/>
       <c r="N208" s="2"/>
       <c r="O208" s="2"/>
       <c r="P208" s="2"/>
@@ -6290,8 +7779,11 @@
       <c r="W208" s="2"/>
       <c r="X208" s="2"/>
       <c r="Y208" s="2"/>
-    </row>
-    <row r="209" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z208" s="2"/>
+      <c r="AA208" s="2"/>
+      <c r="AB208" s="2"/>
+    </row>
+    <row r="209" spans="1:28" ht="15.75" customHeight="1">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -6303,8 +7795,8 @@
       <c r="I209" s="2"/>
       <c r="J209" s="2"/>
       <c r="K209" s="2"/>
-      <c r="L209" s="2"/>
-      <c r="M209" s="2"/>
+      <c r="L209" s="8"/>
+      <c r="M209" s="8"/>
       <c r="N209" s="2"/>
       <c r="O209" s="2"/>
       <c r="P209" s="2"/>
@@ -6317,8 +7809,11 @@
       <c r="W209" s="2"/>
       <c r="X209" s="2"/>
       <c r="Y209" s="2"/>
-    </row>
-    <row r="210" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z209" s="2"/>
+      <c r="AA209" s="2"/>
+      <c r="AB209" s="2"/>
+    </row>
+    <row r="210" spans="1:28" ht="15.75" customHeight="1">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -6330,8 +7825,8 @@
       <c r="I210" s="2"/>
       <c r="J210" s="2"/>
       <c r="K210" s="2"/>
-      <c r="L210" s="2"/>
-      <c r="M210" s="2"/>
+      <c r="L210" s="8"/>
+      <c r="M210" s="8"/>
       <c r="N210" s="2"/>
       <c r="O210" s="2"/>
       <c r="P210" s="2"/>
@@ -6344,8 +7839,11 @@
       <c r="W210" s="2"/>
       <c r="X210" s="2"/>
       <c r="Y210" s="2"/>
-    </row>
-    <row r="211" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z210" s="2"/>
+      <c r="AA210" s="2"/>
+      <c r="AB210" s="2"/>
+    </row>
+    <row r="211" spans="1:28" ht="15.75" customHeight="1">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -6357,8 +7855,8 @@
       <c r="I211" s="2"/>
       <c r="J211" s="2"/>
       <c r="K211" s="2"/>
-      <c r="L211" s="2"/>
-      <c r="M211" s="2"/>
+      <c r="L211" s="8"/>
+      <c r="M211" s="8"/>
       <c r="N211" s="2"/>
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
@@ -6371,8 +7869,11 @@
       <c r="W211" s="2"/>
       <c r="X211" s="2"/>
       <c r="Y211" s="2"/>
-    </row>
-    <row r="212" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z211" s="2"/>
+      <c r="AA211" s="2"/>
+      <c r="AB211" s="2"/>
+    </row>
+    <row r="212" spans="1:28" ht="15.75" customHeight="1">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -6384,8 +7885,8 @@
       <c r="I212" s="2"/>
       <c r="J212" s="2"/>
       <c r="K212" s="2"/>
-      <c r="L212" s="2"/>
-      <c r="M212" s="2"/>
+      <c r="L212" s="8"/>
+      <c r="M212" s="8"/>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
       <c r="P212" s="2"/>
@@ -6398,8 +7899,11 @@
       <c r="W212" s="2"/>
       <c r="X212" s="2"/>
       <c r="Y212" s="2"/>
-    </row>
-    <row r="213" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z212" s="2"/>
+      <c r="AA212" s="2"/>
+      <c r="AB212" s="2"/>
+    </row>
+    <row r="213" spans="1:28" ht="15.75" customHeight="1">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -6411,8 +7915,8 @@
       <c r="I213" s="2"/>
       <c r="J213" s="2"/>
       <c r="K213" s="2"/>
-      <c r="L213" s="2"/>
-      <c r="M213" s="2"/>
+      <c r="L213" s="8"/>
+      <c r="M213" s="8"/>
       <c r="N213" s="2"/>
       <c r="O213" s="2"/>
       <c r="P213" s="2"/>
@@ -6425,8 +7929,11 @@
       <c r="W213" s="2"/>
       <c r="X213" s="2"/>
       <c r="Y213" s="2"/>
-    </row>
-    <row r="214" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z213" s="2"/>
+      <c r="AA213" s="2"/>
+      <c r="AB213" s="2"/>
+    </row>
+    <row r="214" spans="1:28" ht="15.75" customHeight="1">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -6438,8 +7945,8 @@
       <c r="I214" s="2"/>
       <c r="J214" s="2"/>
       <c r="K214" s="2"/>
-      <c r="L214" s="2"/>
-      <c r="M214" s="2"/>
+      <c r="L214" s="8"/>
+      <c r="M214" s="8"/>
       <c r="N214" s="2"/>
       <c r="O214" s="2"/>
       <c r="P214" s="2"/>
@@ -6452,8 +7959,11 @@
       <c r="W214" s="2"/>
       <c r="X214" s="2"/>
       <c r="Y214" s="2"/>
-    </row>
-    <row r="215" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z214" s="2"/>
+      <c r="AA214" s="2"/>
+      <c r="AB214" s="2"/>
+    </row>
+    <row r="215" spans="1:28" ht="15.75" customHeight="1">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -6465,8 +7975,8 @@
       <c r="I215" s="2"/>
       <c r="J215" s="2"/>
       <c r="K215" s="2"/>
-      <c r="L215" s="2"/>
-      <c r="M215" s="2"/>
+      <c r="L215" s="8"/>
+      <c r="M215" s="8"/>
       <c r="N215" s="2"/>
       <c r="O215" s="2"/>
       <c r="P215" s="2"/>
@@ -6479,8 +7989,11 @@
       <c r="W215" s="2"/>
       <c r="X215" s="2"/>
       <c r="Y215" s="2"/>
-    </row>
-    <row r="216" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z215" s="2"/>
+      <c r="AA215" s="2"/>
+      <c r="AB215" s="2"/>
+    </row>
+    <row r="216" spans="1:28" ht="15.75" customHeight="1">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -6492,8 +8005,8 @@
       <c r="I216" s="2"/>
       <c r="J216" s="2"/>
       <c r="K216" s="2"/>
-      <c r="L216" s="2"/>
-      <c r="M216" s="2"/>
+      <c r="L216" s="8"/>
+      <c r="M216" s="8"/>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
       <c r="P216" s="2"/>
@@ -6506,8 +8019,11 @@
       <c r="W216" s="2"/>
       <c r="X216" s="2"/>
       <c r="Y216" s="2"/>
-    </row>
-    <row r="217" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z216" s="2"/>
+      <c r="AA216" s="2"/>
+      <c r="AB216" s="2"/>
+    </row>
+    <row r="217" spans="1:28" ht="15.75" customHeight="1">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -6519,8 +8035,8 @@
       <c r="I217" s="2"/>
       <c r="J217" s="2"/>
       <c r="K217" s="2"/>
-      <c r="L217" s="2"/>
-      <c r="M217" s="2"/>
+      <c r="L217" s="8"/>
+      <c r="M217" s="8"/>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
       <c r="P217" s="2"/>
@@ -6533,8 +8049,11 @@
       <c r="W217" s="2"/>
       <c r="X217" s="2"/>
       <c r="Y217" s="2"/>
-    </row>
-    <row r="218" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z217" s="2"/>
+      <c r="AA217" s="2"/>
+      <c r="AB217" s="2"/>
+    </row>
+    <row r="218" spans="1:28" ht="15.75" customHeight="1">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -6546,8 +8065,8 @@
       <c r="I218" s="2"/>
       <c r="J218" s="2"/>
       <c r="K218" s="2"/>
-      <c r="L218" s="2"/>
-      <c r="M218" s="2"/>
+      <c r="L218" s="8"/>
+      <c r="M218" s="8"/>
       <c r="N218" s="2"/>
       <c r="O218" s="2"/>
       <c r="P218" s="2"/>
@@ -6560,8 +8079,11 @@
       <c r="W218" s="2"/>
       <c r="X218" s="2"/>
       <c r="Y218" s="2"/>
-    </row>
-    <row r="219" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z218" s="2"/>
+      <c r="AA218" s="2"/>
+      <c r="AB218" s="2"/>
+    </row>
+    <row r="219" spans="1:28" ht="15.75" customHeight="1">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -6573,8 +8095,8 @@
       <c r="I219" s="2"/>
       <c r="J219" s="2"/>
       <c r="K219" s="2"/>
-      <c r="L219" s="2"/>
-      <c r="M219" s="2"/>
+      <c r="L219" s="8"/>
+      <c r="M219" s="8"/>
       <c r="N219" s="2"/>
       <c r="O219" s="2"/>
       <c r="P219" s="2"/>
@@ -6587,8 +8109,11 @@
       <c r="W219" s="2"/>
       <c r="X219" s="2"/>
       <c r="Y219" s="2"/>
-    </row>
-    <row r="220" spans="1:25" ht="15.75" customHeight="1">
+      <c r="Z219" s="2"/>
+      <c r="AA219" s="2"/>
+      <c r="AB219" s="2"/>
+    </row>
+    <row r="220" spans="1:28" ht="15.75" customHeight="1">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -6600,8 +8125,8 @@
       <c r="I220" s="2"/>
       <c r="J220" s="2"/>
       <c r="K220" s="2"/>
-      <c r="L220" s="2"/>
-      <c r="M220" s="2"/>
+      <c r="L220" s="8"/>
+      <c r="M220" s="8"/>
       <c r="N220" s="2"/>
       <c r="O220" s="2"/>
       <c r="P220" s="2"/>
@@ -6614,11 +8139,14 @@
       <c r="W220" s="2"/>
       <c r="X220" s="2"/>
       <c r="Y220" s="2"/>
-    </row>
-    <row r="221" spans="1:25" ht="15.75" customHeight="1"/>
-    <row r="222" spans="1:25" ht="15.75" customHeight="1"/>
-    <row r="223" spans="1:25" ht="15.75" customHeight="1"/>
-    <row r="224" spans="1:25" ht="15.75" customHeight="1"/>
+      <c r="Z220" s="2"/>
+      <c r="AA220" s="2"/>
+      <c r="AB220" s="2"/>
+    </row>
+    <row r="221" spans="1:28" ht="15.75" customHeight="1"/>
+    <row r="222" spans="1:28" ht="15.75" customHeight="1"/>
+    <row r="223" spans="1:28" ht="15.75" customHeight="1"/>
+    <row r="224" spans="1:28" ht="15.75" customHeight="1"/>
     <row r="225" ht="15.75" customHeight="1"/>
     <row r="226" ht="15.75" customHeight="1"/>
     <row r="227" ht="15.75" customHeight="1"/>
@@ -7396,46 +8924,40 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="E2:E22">
-    <cfRule type="cellIs" dxfId="17" priority="1" operator="equal">
+  <autoFilter ref="A1:AB1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <conditionalFormatting sqref="G2:G22">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E22">
-    <cfRule type="cellIs" dxfId="16" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E2:E22">
-    <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K22">
-    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
+  <conditionalFormatting sqref="N2:N22">
+    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K22">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K22">
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" sqref="K2:K22" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="N2:N22" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"Siker,Nem futtatható,Hiba"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="E2:E22" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" sqref="G2:G22" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"Magas,Normál,Alacsony"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -7444,157 +8966,211 @@
   <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.09765625" customWidth="1"/>
-    <col min="2" max="5" width="22.5" customWidth="1"/>
+    <col min="2" max="2" width="22.5" customWidth="1"/>
+    <col min="3" max="3" width="23.09765625" customWidth="1"/>
+    <col min="4" max="5" width="22.5" customWidth="1"/>
     <col min="6" max="6" width="7.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>131</v>
+      </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="45.75" customHeight="1">
       <c r="A3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
+        <v>26</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>142</v>
+      </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="102.75" customHeight="1">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>139</v>
+      </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
     </row>
     <row r="5" spans="1:5" ht="48" customHeight="1">
       <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>141</v>
+      </c>
       <c r="D5" s="6"/>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:5" ht="48" customHeight="1">
       <c r="A6" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>144</v>
+      </c>
       <c r="D6" s="6"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:5" ht="48" customHeight="1">
       <c r="A7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>140</v>
+      </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
     </row>
     <row r="8" spans="1:5" ht="48" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>143</v>
+      </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6"/>
     </row>
     <row r="9" spans="1:5" ht="48" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
+        <v>31</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:5" ht="48" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
+        <v>32</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>135</v>
+      </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:5" ht="48" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
+        <v>33</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>136</v>
+      </c>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
     </row>
     <row r="12" spans="1:5" ht="48" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
+        <v>34</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>137</v>
+      </c>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
     </row>
     <row r="13" spans="1:5" ht="48" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
+        <v>7</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>133</v>
+      </c>
       <c r="D13" s="6"/>
       <c r="E13" s="6"/>
     </row>
-    <row r="14" spans="1:5" ht="48" customHeight="1">
+    <row r="14" spans="1:5" ht="57">
       <c r="A14" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="D14" s="6"/>
       <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:5" ht="115.5" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
+        <v>35</v>
+      </c>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
@@ -9609,64 +11185,19 @@
     <row r="999" ht="15.75" customHeight="1"/>
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
-      <formula>"Alacsony"</formula>
+  <phoneticPr fontId="10" type="noConversion"/>
+  <conditionalFormatting sqref="B6:E7">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+      <formula>"Low"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
-      <formula>"Normál"</formula>
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+      <formula>"Normal"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6">
-    <cfRule type="cellIs" dxfId="9" priority="3" operator="equal">
-      <formula>"Magas"</formula>
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+      <formula>"High"</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
-      <formula>"Alacsony"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
-      <formula>"Normál"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C6:E6">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
-      <formula>"Magas"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
-      <formula>"Alacsony"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
-      <formula>"Normál"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
-      <formula>"Magas"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
-      <formula>"Alacsony"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
-      <formula>"Normál"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C7:E7">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
-      <formula>"Magas"</formula>
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/Tesztmenedzser.xlsx
+++ b/Tesztmenedzser.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunai\IdeaProjects\Vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAD3F996-00E3-4750-A458-66EE23722BAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1F9AC1-82E6-458B-8523-29B9D0A8A407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3468" yWindow="-108" windowWidth="19680" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tesztesetek (test case)" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="164">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -585,6 +585,53 @@
   </si>
   <si>
     <t>URL= https://lennertamas.github.io/blondesite/</t>
+  </si>
+  <si>
+    <t>1. Start browser
+2. Navigate to webpage (URL)
+3. Click on "Accept" button on "Terms and Conditions" popup window
+4. Click on "Register" tab
+5. Fill "Username" field (USERNAME)
+6. Fill "Password" field (PASSWORD)
+7. Fill "Email" field (EMAIL)
+8. Fill "Description" field (DESCRIPTION)
+9. Click on "Register" button</t>
+  </si>
+  <si>
+    <t>1. Start browser
+2. Navigate to webpage (URL)
+3. Click on "Accept" button on "Terms and Conditions" popup window
+4. Click on "Login" tab
+5. Fill "Username" field (REGISTERED_USERNAME)
+6. Fill "Password" field (REGISTERED_PASSWORD)
+7. Click on "Login" button</t>
+  </si>
+  <si>
+    <t>1. Start browser
+2. Navigate to webpage (URL)
+3. Click on "Accept" button on "Terms and Conditions" popup window
+4. Click on "Login" tab
+5. Fill "Username" field (REGISTERED_USERNAME)
+6. Fill "Password" field (REGISTERED_PASSWORD)
+7. Click on "Login" button
+8. Click on "Logout" button</t>
+  </si>
+  <si>
+    <t>1. Start browser
+2. Navigate to webpage (URL)
+3. Click on "Accept" button on "Terms and Conditions" popup window
+4. Click on "Register" tab
+5. Fill "Username" field (USERNAME from File)
+6. Fill "Password" field (PASSWORD from File)
+7. Fill "Email" field (EMAIL from File)
+8. Fill "Description" field (DESCRIPTION from File)
+9. Click on "Register" button
+10. Click on "Login" tab
+11. Fill "Username" field (USERNAME from File)
+12. Fill "Password" field (PASSWORD from File)
+13. Click on "Login" button
+14. Click on "Logout" button
+15. Repeat steps 4 to 14. with all File data.</t>
   </si>
 </sst>
 </file>
@@ -756,7 +803,7 @@
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -785,30 +832,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFF45338"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFE598"/>
-          <bgColor rgb="FFFFE598"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFEA9999"/>
-          <bgColor rgb="FFEA9999"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1078,9 +1101,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1092,7 +1115,7 @@
     <col min="6" max="6" width="24" customWidth="1"/>
     <col min="7" max="7" width="10.69921875" customWidth="1"/>
     <col min="8" max="8" width="11.69921875" customWidth="1"/>
-    <col min="9" max="9" width="23.19921875" customWidth="1"/>
+    <col min="9" max="9" width="39.69921875" customWidth="1"/>
     <col min="10" max="10" width="34.5" customWidth="1"/>
     <col min="11" max="11" width="16.69921875" customWidth="1"/>
     <col min="12" max="12" width="16.8984375" style="9" customWidth="1"/>
@@ -1215,7 +1238,7 @@
       <c r="AA2" s="2"/>
       <c r="AB2" s="2"/>
     </row>
-    <row r="3" spans="1:28" ht="92.4" thickTop="1" thickBot="1">
+    <row r="3" spans="1:28" ht="115.2" thickTop="1" thickBot="1">
       <c r="A3" s="5" t="s">
         <v>36</v>
       </c>
@@ -1240,7 +1263,9 @@
       <c r="H3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="14"/>
+      <c r="I3" s="5" t="s">
+        <v>160</v>
+      </c>
       <c r="J3" s="6" t="s">
         <v>152</v>
       </c>
@@ -1271,7 +1296,7 @@
       <c r="AA3" s="2"/>
       <c r="AB3" s="2"/>
     </row>
-    <row r="4" spans="1:28" ht="82.2" customHeight="1" thickTop="1" thickBot="1">
+    <row r="4" spans="1:28" ht="92.4" thickTop="1" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>37</v>
       </c>
@@ -1296,7 +1321,9 @@
       <c r="H4" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="J4" s="6" t="s">
         <v>151</v>
       </c>
@@ -1327,7 +1354,7 @@
       <c r="AA4" s="2"/>
       <c r="AB4" s="2"/>
     </row>
-    <row r="5" spans="1:28" ht="57">
+    <row r="5" spans="1:28" ht="102.6">
       <c r="A5" s="5" t="s">
         <v>38</v>
       </c>
@@ -1352,7 +1379,9 @@
       <c r="H5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="J5" s="6" t="s">
         <v>151</v>
       </c>
@@ -1383,7 +1412,7 @@
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
     </row>
-    <row r="6" spans="1:28" ht="81" thickTop="1" thickBot="1">
+    <row r="6" spans="1:28" ht="183.6" thickTop="1" thickBot="1">
       <c r="A6" s="5" t="s">
         <v>39</v>
       </c>
@@ -1408,7 +1437,9 @@
       <c r="H6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="J6" s="6" t="s">
         <v>148</v>
       </c>
@@ -1999,7 +2030,7 @@
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
     </row>
-    <row r="17" spans="1:28" s="13" customFormat="1" ht="79.8">
+    <row r="17" spans="1:28" s="13" customFormat="1" ht="79.8" hidden="1">
       <c r="A17" s="10" t="s">
         <v>50</v>
       </c>
@@ -2053,7 +2084,7 @@
       <c r="AA17" s="12"/>
       <c r="AB17" s="12"/>
     </row>
-    <row r="18" spans="1:28" ht="13.8">
+    <row r="18" spans="1:28" thickTop="1" thickBot="1">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
@@ -8927,24 +8958,24 @@
   <autoFilter ref="A1:AB1" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="7" type="noConversion"/>
   <conditionalFormatting sqref="G2:G22">
-    <cfRule type="cellIs" dxfId="12" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"Alacsony"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Normál"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
       <formula>"Magas"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N2:N22">
-    <cfRule type="cellIs" dxfId="9" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"Siker"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Nem futtatható"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Hiba"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11187,17 +11218,17 @@
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="B6:E7">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+      <formula>"Critical"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>"Low"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>"Normal"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"High"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
-      <formula>"Critical"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">

--- a/Tesztmenedzser.xlsx
+++ b/Tesztmenedzser.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dunai\IdeaProjects\Vizsgaremek\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA1F9AC1-82E6-458B-8523-29B9D0A8A407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485114BA-C883-40DF-BCA4-C3A86CA6DFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="174">
   <si>
     <t>Azonosító (ID)</t>
   </si>
@@ -496,26 +496,6 @@
   <si>
     <t>URL=https://lennertamas.github.io/blondesite/
 File: registerData.json</t>
-  </si>
-  <si>
-    <t>URL= https://lennertamas.github.io/blondesite/profile.html
-*Registration:*
-USERNAME="Anna"
-PASSWORD="mammamia123"
-EMAIL="cool@code.com"
-DESCRIPTION="Tester"</t>
-  </si>
-  <si>
-    <t>URL= https://lennertamas.github.io/blondesite/profile.html
-*Registration:*
-USERNAME="Anna"
-PASSWORD="mammamia123"
-EMAIL="cool@code.com"
-DESCRIPTION="Tester"
-*Modify profile:*
-PROFILE_NAME="Anna Smith"
-PROFILE_BIO="bio"
-PROFILE_PHONE="0051 1234 5678"</t>
   </si>
   <si>
     <t>URL= https://lennertamas.github.io/blondesite/
@@ -533,32 +513,6 @@
 </t>
   </si>
   <si>
-    <t>URL = https://lennertamas.github.io/blondesite/post/image-test/
-*Registration:*
-USERNAME="Anna"
-PASSWORD="mammamia123"
-EMAIL="cool@code.com"
-DESCRIPTION="Tester"</t>
-  </si>
-  <si>
-    <t>URL = https://lennertamas.github.io/blondesite/post/markdown-syntax/
-*Registration:*
-USERNAME="Anna"
-PASSWORD="mammamia123"
-EMAIL="cool@code.com"
-DESCRIPTION="Tester"
-File: namesFromTable.txt</t>
-  </si>
-  <si>
-    <t>URL = https://lennertamas.github.io/blondesite/post/markdown-syntax/
-*Registration:*
-USERNAME="Anna"
-PASSWORD="mammamia123"
-EMAIL="cool@code.com"
-DESCRIPTION="Tester"
-ages = "27", "23"</t>
-  </si>
-  <si>
     <t>URL= https://lennertamas.github.io/blondesite/
 *Registration:*
 USERNAME="Anna"
@@ -574,14 +528,6 @@
 EMAIL="cool@code.com"
 DESCRIPTION="Tester"
 File: tagList.txt</t>
-  </si>
-  <si>
-    <t>URL = https://lennertamas.github.io/blondesite/contact/
-*Registration:*
-USERNAME="Anna"
-PASSWORD="mammamia123"
-EMAIL="cool@code.com"
-DESCRIPTION="Tester"</t>
   </si>
   <si>
     <t>URL= https://lennertamas.github.io/blondesite/</t>
@@ -632,6 +578,243 @@
 13. Click on "Login" button
 14. Click on "Logout" button
 15. Repeat steps 4 to 14. with all File data.</t>
+  </si>
+  <si>
+    <t>1. Start browser
+2. Navigate to webpage (URL)
+3. Click on "Accept" button on "Terms and Conditions" popup window
+4. Click on "Register" tab
+5. Fill "Username" field (USERNAME from File)
+6. Fill "Password" field (PASSWORD from File)
+7. Fill "Email" field (EMAIL from File)
+8. Fill "Description" field (DESCRIPTION from File)
+9. Click on "Register" button
+10. Click on "Login" tab
+11. Fill "Username" field (USERNAME from File)
+12. Fill "Password" field (PASSWORD from File)
+13. Click on "Login" button
+14. Click on "Profile" menu
+15. Fill "Name" field (PROFILE_NAME)
+16. FIll "Bio" field (PROFILE_BIO)
+17. FIll "Phone" field (PROFILE_PHONE)
+18. Click on "Save Profile" button</t>
+  </si>
+  <si>
+    <t>1. Start browser
+2. Navigate to webpage (URL)
+3. Click on "Accept" button on "Terms and Conditions" popup window
+4. Click on "Register" tab
+5. Fill "Username" field (USERNAME from File)
+6. Fill "Password" field (PASSWORD from File)
+7. Fill "Email" field (EMAIL from File)
+8. Fill "Description" field (DESCRIPTION from File)
+9. Click on "Register" button
+10. Click on "Login" tab
+11. Fill "Username" field (USERNAME from File)
+12. Fill "Password" field (PASSWORD from File)
+13. Click on "Login" button
+14. Click on "Profile" menu
+15. Click on "Delete Account" button
+16. Click on "I am Sure! Delete my account" button</t>
+  </si>
+  <si>
+    <t>URL= https://lennertamas.github.io/blondesite/
+*Registration:*
+USERNAME="Anna"
+PASSWORD="mammamia123"
+EMAIL="cool@code.com"
+DESCRIPTION="Tester"
+ALERT_MESSAGE="User cannot register without accepting the Terms And Conditions!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Start browser
+2. Navigate to webpage (URL)
+3. Click on "X" button on "Terms and Conditions" popup window
+4. Click on "Register" tab
+5. Fill "Username" field (USERNAME from File)
+6. Fill "Password" field (PASSWORD from File)
+7. Fill "Email" field (EMAIL from File)
+8. Fill "Description" field (DESCRIPTION from File)
+9. Click on "Register" button
+10. Click on "Login" tab
+11. Fill "Username" field (USERNAME from File)
+12. Fill "Password" field (PASSWORD from File)
+13. Click on "Login" button
+14. Check the alert message (ALERT_MESSAGE)
+</t>
+  </si>
+  <si>
+    <t>1. Start browser
+2. Navigate to webpage (URL)
+3. Check the "Terms and Conditions" popup window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Start browser
+2. Navigate to webpage (URL)
+3. Click on "Accept" button on "Terms and Conditions" popup window
+4. Click on "Register" tab
+5. Fill "Username" field (USERNAME from File)
+6. Fill "Password" field (PASSWORD from File)
+7. Fill "Email" field (EMAIL from File)
+8. Fill "Description" field (DESCRIPTION from File)
+9. Click on "Register" button
+10. Click on "Login" tab
+11. Fill "Username" field (USERNAME from File)
+12. Fill "Password" field (PASSWORD from File)
+13. Click on "Login" button
+14. Count the post titles on page
+15. Click on "Next" button
+16. Repeat steps 14-15 until the last post titles
+</t>
+  </si>
+  <si>
+    <t>1. Start browser
+2. Navigate to webpage (URL1)
+3. Click on "Accept" button on "Terms and Conditions" popup window
+4. Click on "Register" tab
+5. Fill "Username" field (USERNAME from File)
+6. Fill "Password" field (PASSWORD from File)
+7. Fill "Email" field (EMAIL from File)
+8. Fill "Description" field (DESCRIPTION from File)
+9. Click on "Register" button
+10. Click on "Login" tab
+11. Fill "Username" field (USERNAME from File)
+12. Fill "Password" field (PASSWORD from File)
+13. Click on "Login" button
+14.  Navigate to webpage (URL2)
+15. Save the image (IMAGE_NAME) to the project folder</t>
+  </si>
+  <si>
+    <t>URL1= https://lennertamas.github.io/blondesite/
+URL2 = https://lennertamas.github.io/blondesite/post/image-test/
+*Registration:*
+USERNAME="Anna"
+PASSWORD="mammamia123"
+EMAIL="cool@code.com"
+DESCRIPTION="Tester"
+IMAGE_NAME="prism.jpg"</t>
+  </si>
+  <si>
+    <t>URL1= https://lennertamas.github.io/blondesite/
+URL2 = https://lennertamas.github.io/blondesite/post/markdown-syntax/
+*Registration:*
+USERNAME="Anna"
+PASSWORD="mammamia123"
+EMAIL="cool@code.com"
+DESCRIPTION="Tester"
+File: namesFromTable.txt</t>
+  </si>
+  <si>
+    <t>URL1= https://lennertamas.github.io/blondesite/
+URL2 = https://lennertamas.github.io/blondesite/post/markdown-syntax/
+*Registration:*
+USERNAME="Anna"
+PASSWORD="mammamia123"
+EMAIL="cool@code.com"
+DESCRIPTION="Tester"
+ages = "27", "23"</t>
+  </si>
+  <si>
+    <t>URL=  https://lennertamas.github.io/blondesite/
+*Registration:*
+USERNAME="Anna"
+PASSWORD="mammamia123"
+EMAIL="cool@code.com"
+DESCRIPTION="Tester"
+*Modify profile:*
+PROFILE_NAME="Anna Smith"
+PROFILE_BIO="bio"
+PROFILE_PHONE="0051 1234 5678"</t>
+  </si>
+  <si>
+    <t>1. Start browser
+2. Navigate to webpage (URL1)
+3. Click on "Accept" button on "Terms and Conditions" popup window
+4. Click on "Register" tab
+5. Fill "Username" field (USERNAME from File)
+6. Fill "Password" field (PASSWORD from File)
+7. Fill "Email" field (EMAIL from File)
+8. Fill "Description" field (DESCRIPTION from File)
+9. Click on "Register" button
+10. Click on "Login" tab
+11. Fill "Username" field (USERNAME from File)
+12. Fill "Password" field (PASSWORD from File)
+13. Click on "Login" button
+14. Navigate to webpage (URL2)
+15. Find the first table with "Name" and "Age" column
+16. Check names in "Name" column
+17. Compare the names with the text file (File)</t>
+  </si>
+  <si>
+    <t>1. Start browser
+2. Navigate to webpage (URL1)
+3. Click on "Accept" button on "Terms and Conditions" popup window
+4. Click on "Register" tab
+5. Fill "Username" field (USERNAME from File)
+6. Fill "Password" field (PASSWORD from File)
+7. Fill "Email" field (EMAIL from File)
+8. Fill "Description" field (DESCRIPTION from File)
+9. Click on "Register" button
+10. Click on "Login" tab
+11. Fill "Username" field (USERNAME from File)
+12. Fill "Password" field (PASSWORD from File)
+13. Click on "Login" button
+14. Navigate to webpage (URL2)
+15. Find the first table with "Name" and "Age" column
+16. Check ages in "Age" column
+17. Compare the ages with test data (ages)</t>
+  </si>
+  <si>
+    <t>1. Start browser
+2. Navigate to webpage (URL)
+3. Click on "Accept" button on "Terms and Conditions" popup window
+4. Click on "Register" tab
+5. Fill "Username" field (USERNAME from File)
+6. Fill "Password" field (PASSWORD from File)
+7. Fill "Email" field (EMAIL from File)
+8. Fill "Description" field (DESCRIPTION from File)
+9. Click on "Register" button
+10. Click on "Login" tab
+11. Fill "Username" field (USERNAME from File)
+12. Fill "Password" field (PASSWORD from File)
+13. Click on "Login" button
+14. Check tags in Tags section
+15. Compare the tags with test file (File)</t>
+  </si>
+  <si>
+    <t>URL= https://lennertamas.github.io/blondesite/
+*Registration:*
+USERNAME="Anna"
+PASSWORD="mammamia123"
+EMAIL="cool@code.com"
+DESCRIPTION="Tester"
+CONTACT_NAME = "Aniko"
+   CONTACT_EMAIL = "aniko@cool.com"
+   CONTACT_SUBJECT = "say hello letter"
+   CONTACT_MESSAGE = "Hello, the website is really great. A."
+CONTACT_ERROR_MESSAGE="Form not found."</t>
+  </si>
+  <si>
+    <t>1. Start browser
+2. Navigate to webpage (URL)
+3. Click on "Accept" button on "Terms and Conditions" popup window
+4. Click on "Register" tab
+5. Fill "Username" field (USERNAME from File)
+6. Fill "Password" field (PASSWORD from File)
+7. Fill "Email" field (EMAIL from File)
+8. Fill "Description" field (DESCRIPTION from File)
+9. Click on "Register" button
+10. Click on "Login" tab
+11. Fill "Username" field (USERNAME from File)
+12. Fill "Password" field (PASSWORD from File)
+13. Click on "Login" button
+14. Click on "Contact" menu
+15. Fill "Your name" field (CONTACT_NAME)
+16. Fill "Email Address" field (CONTACT_EMAIL)
+17. Fill "Subject" field (CONTACT_SUBJECT)
+18. Fill "Message" field (CONTACT_MESSAGE)
+19. Click on "Submit" button
+20. Check the error message (CONTACT_ERROR_MESSAGE)</t>
   </si>
 </sst>
 </file>
@@ -755,7 +938,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -790,9 +973,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1101,9 +1281,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I7" sqref="I7"/>
+      <selection pane="topRight" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="15" customHeight="1"/>
@@ -1264,10 +1444,10 @@
         <v>51</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J3" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="K3" s="6" t="s">
         <v>59</v>
@@ -1322,10 +1502,10 @@
         <v>51</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="J4" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K4" s="6" t="s">
         <v>59</v>
@@ -1380,10 +1560,10 @@
         <v>51</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="K5" s="6" t="s">
         <v>59</v>
@@ -1438,7 +1618,7 @@
         <v>51</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>148</v>
@@ -1470,7 +1650,7 @@
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
     </row>
-    <row r="7" spans="1:28" ht="149.4" thickTop="1" thickBot="1">
+    <row r="7" spans="1:28" ht="216" customHeight="1" thickTop="1" thickBot="1">
       <c r="A7" s="5" t="s">
         <v>40</v>
       </c>
@@ -1495,9 +1675,11 @@
       <c r="H7" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I7" s="14"/>
+      <c r="I7" s="5" t="s">
+        <v>158</v>
+      </c>
       <c r="J7" s="6" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
       <c r="K7" s="6" t="s">
         <v>77</v>
@@ -1526,7 +1708,7 @@
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
     </row>
-    <row r="8" spans="1:28" ht="92.4" thickTop="1" thickBot="1">
+    <row r="8" spans="1:28" ht="208.2" customHeight="1" thickTop="1" thickBot="1">
       <c r="A8" s="5" t="s">
         <v>41</v>
       </c>
@@ -1551,9 +1733,11 @@
       <c r="H8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="14"/>
+      <c r="I8" s="5" t="s">
+        <v>159</v>
+      </c>
       <c r="J8" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K8" s="6" t="s">
         <v>59</v>
@@ -1582,7 +1766,7 @@
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
     </row>
-    <row r="9" spans="1:28" ht="103.8" thickTop="1" thickBot="1">
+    <row r="9" spans="1:28" ht="201" customHeight="1" thickTop="1" thickBot="1">
       <c r="A9" s="5" t="s">
         <v>42</v>
       </c>
@@ -1607,9 +1791,11 @@
       <c r="H9" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I9" s="14"/>
+      <c r="I9" s="5" t="s">
+        <v>164</v>
+      </c>
       <c r="J9" s="6" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="K9" s="6" t="s">
         <v>77</v>
@@ -1638,7 +1824,7 @@
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
     </row>
-    <row r="10" spans="1:28" ht="126.6" thickTop="1" thickBot="1">
+    <row r="10" spans="1:28" ht="206.4" thickTop="1" thickBot="1">
       <c r="A10" s="5" t="s">
         <v>43</v>
       </c>
@@ -1663,9 +1849,11 @@
       <c r="H10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="5" t="s">
+        <v>169</v>
+      </c>
       <c r="J10" s="6" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="K10" s="6" t="s">
         <v>91</v>
@@ -1694,7 +1882,7 @@
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
     </row>
-    <row r="11" spans="1:28" ht="125.4">
+    <row r="11" spans="1:28" ht="235.8" customHeight="1">
       <c r="A11" s="5" t="s">
         <v>44</v>
       </c>
@@ -1719,9 +1907,11 @@
       <c r="H11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="14"/>
+      <c r="I11" s="5" t="s">
+        <v>170</v>
+      </c>
       <c r="J11" s="6" t="s">
-        <v>155</v>
+        <v>167</v>
       </c>
       <c r="K11" s="6" t="s">
         <v>91</v>
@@ -1750,7 +1940,7 @@
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
     </row>
-    <row r="12" spans="1:28" ht="102.6">
+    <row r="12" spans="1:28" ht="182.4">
       <c r="A12" s="5" t="s">
         <v>45</v>
       </c>
@@ -1775,9 +1965,11 @@
       <c r="H12" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I12" s="14"/>
+      <c r="I12" s="5" t="s">
+        <v>171</v>
+      </c>
       <c r="J12" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="K12" s="6" t="s">
         <v>91</v>
@@ -1806,7 +1998,7 @@
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
     </row>
-    <row r="13" spans="1:28" ht="91.2">
+    <row r="13" spans="1:28" ht="250.8">
       <c r="A13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1831,9 +2023,11 @@
       <c r="H13" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I13" s="14"/>
+      <c r="I13" s="5" t="s">
+        <v>173</v>
+      </c>
       <c r="J13" s="6" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="K13" s="6" t="s">
         <v>106</v>
@@ -1887,9 +2081,11 @@
       <c r="H14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="14"/>
+      <c r="I14" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="J14" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="K14" s="6" t="s">
         <v>77</v>
@@ -1918,7 +2114,7 @@
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
     </row>
-    <row r="15" spans="1:28" ht="85.5" customHeight="1" thickTop="1" thickBot="1">
+    <row r="15" spans="1:28" ht="193.2" customHeight="1" thickTop="1" thickBot="1">
       <c r="A15" s="5" t="s">
         <v>48</v>
       </c>
@@ -1943,9 +2139,11 @@
       <c r="H15" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I15" s="14"/>
+      <c r="I15" s="5" t="s">
+        <v>161</v>
+      </c>
       <c r="J15" s="6" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="K15" s="6" t="s">
         <v>59</v>
@@ -1974,7 +2172,7 @@
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
     </row>
-    <row r="16" spans="1:28" ht="81" thickTop="1" thickBot="1">
+    <row r="16" spans="1:28" ht="206.4" thickTop="1" thickBot="1">
       <c r="A16" s="5" t="s">
         <v>49</v>
       </c>
@@ -1999,9 +2197,11 @@
       <c r="H16" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="14"/>
+      <c r="I16" s="5" t="s">
+        <v>163</v>
+      </c>
       <c r="J16" s="6" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="K16" s="6" t="s">
         <v>59</v>
@@ -2055,9 +2255,9 @@
       <c r="H17" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="15"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="11" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="K17" s="11" t="s">
         <v>91</v>
@@ -2114,7 +2314,7 @@
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
     </row>
-    <row r="19" spans="1:28" ht="141" customHeight="1">
+    <row r="19" spans="1:28" ht="141" customHeight="1" thickTop="1" thickBot="1">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
@@ -9200,8 +9400,8 @@
       <c r="A15" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
       <c r="D15" s="6"/>
       <c r="E15" s="6"/>
     </row>
